--- a/AAII_Financials/Quarterly/INVE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INVE_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,206 +662,231 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>19000</v>
+      </c>
+      <c r="F8" s="3">
         <v>23000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>22200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>19500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>21300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>20000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>20300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>16500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>16600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>15400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>14800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>13400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>14600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>11400</v>
+      </c>
+      <c r="F9" s="3">
         <v>12500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>12400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>10800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>11100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>11500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>12100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>10000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>11600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>9600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>9200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>7700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>8400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F10" s="3">
         <v>10500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>9800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>8700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>10200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>8500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>8200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>6500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>5000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>5800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>5600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>5700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>6200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -878,43 +903,45 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F12" s="3">
         <v>2100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>2100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>2000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>1900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>1900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>1800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>1700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>1600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>1600</v>
-      </c>
-      <c r="M12" s="3">
-        <v>1500</v>
-      </c>
-      <c r="N12" s="3">
-        <v>1500</v>
       </c>
       <c r="O12" s="3">
         <v>1500</v>
@@ -922,8 +949,14 @@
       <c r="P12" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R12" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -966,52 +999,64 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3">
+        <v>100</v>
+      </c>
+      <c r="F14" s="3">
         <v>-100</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>1600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>1800</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>-1000</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1028,10 +1073,10 @@
         <v>400</v>
       </c>
       <c r="H15" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I15" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J15" s="3">
         <v>300</v>
@@ -1054,8 +1099,14 @@
       <c r="P15" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>300</v>
+      </c>
+      <c r="R15" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1069,96 +1120,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>20700</v>
+      </c>
+      <c r="F17" s="3">
         <v>21800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>21400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>20000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>20200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>20200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>22700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>18300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>20400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>15800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>16100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>13400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>14800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>15700</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F18" s="3">
         <v>1200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>1100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-2400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-3800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1300</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1175,8 +1240,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1184,87 +1251,99 @@
         <v>-100</v>
       </c>
       <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F21" s="3">
         <v>2100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>1400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>1500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-3900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1307,69 +1386,81 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F23" s="3">
         <v>1200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-2700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-2300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-4600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
         <v>100</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1378,25 +1469,31 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>-100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1439,96 +1536,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F26" s="3">
         <v>1100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-2700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-2300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-4500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1900</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-700</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-1100</v>
       </c>
       <c r="P26" s="3">
         <v>-700</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="R26" s="3">
+        <v>-700</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F27" s="3">
         <v>800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-2700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-2300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-4500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1900</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-700</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-1100</v>
       </c>
       <c r="P27" s="3">
         <v>-700</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="R27" s="3">
+        <v>-700</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1571,8 +1686,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1615,8 +1736,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1659,8 +1786,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1703,8 +1836,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -1712,87 +1851,99 @@
         <v>100</v>
       </c>
       <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>100</v>
+      </c>
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F33" s="3">
         <v>800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-2700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-2300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-4500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1900</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-700</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-1100</v>
       </c>
       <c r="P33" s="3">
         <v>-700</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="R33" s="3">
+        <v>-700</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1835,101 +1986,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F35" s="3">
         <v>800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-2700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-2300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-4500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1900</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-700</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-1100</v>
       </c>
       <c r="P35" s="3">
         <v>-700</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="R35" s="3">
+        <v>-700</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1946,8 +2115,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1964,52 +2135,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>9400</v>
+      </c>
+      <c r="F41" s="3">
         <v>11100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>11100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>8900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>10900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>14200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>17900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>16700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>19100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>15700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>18000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>7900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>9100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2052,184 +2231,214 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>18400</v>
+      </c>
+      <c r="F43" s="3">
         <v>19300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>17600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>15500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>15000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>14100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>14000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>12500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>12300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>10600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>10600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>8800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>9400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E44" s="3">
+        <v>16100</v>
+      </c>
+      <c r="F44" s="3">
         <v>14000</v>
-      </c>
-      <c r="E44" s="3">
-        <v>13600</v>
-      </c>
-      <c r="F44" s="3">
-        <v>12500</v>
       </c>
       <c r="G44" s="3">
         <v>13600</v>
       </c>
       <c r="H44" s="3">
+        <v>12500</v>
+      </c>
+      <c r="I44" s="3">
+        <v>13600</v>
+      </c>
+      <c r="J44" s="3">
         <v>12000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>12800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>11600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>11100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>13400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>12500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>12600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>11600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F45" s="3">
         <v>2800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>2900</v>
-      </c>
-      <c r="F45" s="3">
-        <v>2400</v>
-      </c>
-      <c r="G45" s="3">
-        <v>2700</v>
       </c>
       <c r="H45" s="3">
         <v>2400</v>
       </c>
       <c r="I45" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J45" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K45" s="3">
         <v>1900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>2500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>47200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>46200</v>
+      </c>
+      <c r="F46" s="3">
         <v>47100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>45200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>39200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>42200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>42700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>46500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>42600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>44200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>42300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>43000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>31100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>31700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2272,96 +2481,114 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F48" s="3">
         <v>7300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>8000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>8600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2100</v>
-      </c>
-      <c r="I48" s="3">
-        <v>2000</v>
-      </c>
-      <c r="J48" s="3">
-        <v>2200</v>
       </c>
       <c r="K48" s="3">
         <v>2000</v>
       </c>
       <c r="L48" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="M48" s="3">
         <v>2000</v>
       </c>
       <c r="N48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="O48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P48" s="3">
         <v>2200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>20300</v>
+      </c>
+      <c r="F49" s="3">
         <v>20900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>21500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>22400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>20300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>14900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>15500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>16100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>4400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>4700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>5100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>5500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>5800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2404,8 +2631,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2448,52 +2681,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F52" s="3">
         <v>1200</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1300</v>
       </c>
       <c r="G52" s="3">
         <v>1200</v>
       </c>
       <c r="H52" s="3">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="I52" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="J52" s="3">
         <v>1100</v>
       </c>
       <c r="K52" s="3">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L52" s="3">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="M52" s="3">
         <v>700</v>
       </c>
       <c r="N52" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="O52" s="3">
         <v>700</v>
       </c>
       <c r="P52" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>700</v>
+      </c>
+      <c r="R52" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2536,52 +2781,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>73800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>74300</v>
+      </c>
+      <c r="F54" s="3">
         <v>76500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>75900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>71600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>66300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>60900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>65000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>61900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>51400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>49800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>50800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>39500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>40600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2598,8 +2855,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2616,272 +2875,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>8800</v>
+      </c>
+      <c r="F57" s="3">
         <v>7600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>8200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>6300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>5700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>5600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>7200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>7000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>5900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>7600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>8500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>7400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>6000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>15500</v>
+      </c>
+      <c r="F58" s="3">
         <v>16000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>14300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>12800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>14600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>14200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>16500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>15300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>10700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>10800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>9400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>8700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>8900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>10800</v>
+        <v>9300</v>
       </c>
       <c r="E59" s="3">
-        <v>11500</v>
+        <v>10200</v>
       </c>
       <c r="F59" s="3">
         <v>10800</v>
       </c>
       <c r="G59" s="3">
+        <v>11500</v>
+      </c>
+      <c r="H59" s="3">
+        <v>10800</v>
+      </c>
+      <c r="I59" s="3">
         <v>9200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>7100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>7400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>9400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>4600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>5800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>6000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>6700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>7600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>36200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>34500</v>
+      </c>
+      <c r="F60" s="3">
         <v>34400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>34000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>29900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>29500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>26900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>31200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>31800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>21200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>24100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>23900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>22900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>22600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>700</v>
+      </c>
+      <c r="E61" s="3">
+        <v>400</v>
+      </c>
+      <c r="F61" s="3">
         <v>900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>2200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>2400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>5400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>5900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>9800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>10600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>11400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>13800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F62" s="3">
         <v>4500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>5000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>5300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>400</v>
-      </c>
-      <c r="L62" s="3">
-        <v>200</v>
-      </c>
-      <c r="M62" s="3">
-        <v>200</v>
       </c>
       <c r="N62" s="3">
         <v>200</v>
       </c>
       <c r="O62" s="3">
+        <v>200</v>
+      </c>
+      <c r="P62" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q62" s="3">
         <v>300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2924,8 +3221,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2968,8 +3271,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3012,52 +3321,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>40400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>38900</v>
+      </c>
+      <c r="F66" s="3">
         <v>39700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>40100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>36600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>32400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>30700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>34800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>37300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>27300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>33900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>34500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>34300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>36500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>39300</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3074,8 +3395,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3118,8 +3441,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3162,8 +3491,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3206,8 +3541,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3250,52 +3591,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-407600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-405500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-403700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-404800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-405200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-404400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-405000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-404700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-402000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-399600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-395100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-394100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-392200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-391500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-390400</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3338,8 +3691,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3382,8 +3741,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3426,52 +3791,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>33300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>35500</v>
+      </c>
+      <c r="F76" s="3">
         <v>36700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>35700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>35000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>33900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>30200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>30200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>24600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>24000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>15900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>16400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>5200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>4100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3514,101 +3891,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F81" s="3">
         <v>800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-2700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-2300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-4500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1900</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-700</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-1100</v>
       </c>
       <c r="P81" s="3">
         <v>-700</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="R81" s="3">
+        <v>-700</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3625,34 +4020,36 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="E83" s="3">
         <v>900</v>
       </c>
       <c r="F83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G83" s="3">
         <v>900</v>
       </c>
-      <c r="G83" s="3">
-        <v>800</v>
-      </c>
       <c r="H83" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="I83" s="3">
         <v>800</v>
       </c>
       <c r="J83" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K83" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L83" s="3">
         <v>700</v>
@@ -3661,16 +4058,22 @@
         <v>700</v>
       </c>
       <c r="N83" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="O83" s="3">
         <v>700</v>
       </c>
       <c r="P83" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>700</v>
+      </c>
+      <c r="R83" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3713,8 +4116,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3757,8 +4166,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3801,8 +4216,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3845,8 +4266,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3889,52 +4316,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>1500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-2200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-3000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-2600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-2400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-1900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-800</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3951,8 +4390,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
@@ -3960,43 +4401,49 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I91" s="3">
         <v>-700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-200</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-100</v>
       </c>
       <c r="P91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4039,8 +4486,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4083,8 +4536,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
@@ -4095,40 +4554,46 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-1400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-1400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-200</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-100</v>
       </c>
       <c r="P94" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -4145,8 +4610,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -4189,8 +4656,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -4233,8 +4706,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -4277,8 +4756,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -4321,52 +4806,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F100" s="3">
         <v>1400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>1200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-2000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-2600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>4900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-1500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>6200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>12300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-600</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
@@ -4377,80 +4874,92 @@
         <v>100</v>
       </c>
       <c r="F101" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="G101" s="3">
         <v>100</v>
       </c>
       <c r="H101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I101" s="3">
+        <v>100</v>
+      </c>
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>2200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-1900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-3400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-3700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>1200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-2400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>3300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-2200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>10100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-1200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INVE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INVE_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,231 +662,244 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E8" s="3">
         <v>18100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>19000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>23000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>22200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>19500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>21300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>20000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>20300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>16500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>16600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>15400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>14800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>13400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>14600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E9" s="3">
         <v>10600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>11400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>12500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>12400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>10800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>11100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>11500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>11600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>9600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>9200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>8400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E10" s="3">
         <v>7500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>7600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>10500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>9800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>8700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>10200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>8500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -905,46 +918,47 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E12" s="3">
         <v>2600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2400</v>
-      </c>
-      <c r="F12" s="3">
-        <v>2100</v>
       </c>
       <c r="G12" s="3">
         <v>2100</v>
       </c>
       <c r="H12" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I12" s="3">
         <v>2000</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1900</v>
       </c>
       <c r="J12" s="3">
         <v>1900</v>
       </c>
       <c r="K12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L12" s="3">
         <v>1800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1700</v>
-      </c>
-      <c r="M12" s="3">
-        <v>1600</v>
       </c>
       <c r="N12" s="3">
         <v>1600</v>
       </c>
       <c r="O12" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="P12" s="3">
         <v>1500</v>
@@ -955,8 +969,11 @@
       <c r="R12" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1005,58 +1022,64 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="E14" s="3">
         <v>100</v>
       </c>
       <c r="F14" s="3">
+        <v>100</v>
+      </c>
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
         <v>200</v>
       </c>
       <c r="K14" s="3">
+        <v>200</v>
+      </c>
+      <c r="L14" s="3">
         <v>1600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1800</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1079,7 +1102,7 @@
         <v>400</v>
       </c>
       <c r="J15" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K15" s="3">
         <v>300</v>
@@ -1105,8 +1128,11 @@
       <c r="R15" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1122,108 +1148,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E17" s="3">
         <v>20000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>20700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>21800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>21400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>20000</v>
-      </c>
-      <c r="I17" s="3">
-        <v>20200</v>
       </c>
       <c r="J17" s="3">
         <v>20200</v>
       </c>
       <c r="K17" s="3">
+        <v>20200</v>
+      </c>
+      <c r="L17" s="3">
         <v>22700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>18300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>20400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>15800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>16100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>13400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>14800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>15700</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1300</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1242,13 +1275,14 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="E20" s="3">
         <v>-100</v>
@@ -1257,93 +1291,99 @@
         <v>-100</v>
       </c>
       <c r="G20" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="H20" s="3">
         <v>-300</v>
       </c>
       <c r="I20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-600</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-800</v>
       </c>
       <c r="Q20" s="3">
         <v>-800</v>
       </c>
       <c r="R20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="S20" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1392,69 +1432,75 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
         <v>100</v>
@@ -1463,7 +1509,7 @@
         <v>100</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -1475,25 +1521,28 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>100</v>
       </c>
       <c r="R24" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1542,108 +1591,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1692,8 +1750,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1742,8 +1803,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1792,8 +1856,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1842,13 +1909,16 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E32" s="3">
         <v>100</v>
@@ -1857,93 +1927,99 @@
         <v>100</v>
       </c>
       <c r="G32" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H32" s="3">
         <v>300</v>
       </c>
       <c r="I32" s="3">
+        <v>300</v>
+      </c>
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>600</v>
-      </c>
-      <c r="P32" s="3">
-        <v>800</v>
       </c>
       <c r="Q32" s="3">
         <v>800</v>
       </c>
       <c r="R32" s="3">
+        <v>800</v>
+      </c>
+      <c r="S32" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1992,113 +2068,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2117,8 +2202,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2137,58 +2223,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E41" s="3">
         <v>8700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9400</v>
-      </c>
-      <c r="F41" s="3">
-        <v>11100</v>
       </c>
       <c r="G41" s="3">
         <v>11100</v>
       </c>
       <c r="H41" s="3">
+        <v>11100</v>
+      </c>
+      <c r="I41" s="3">
         <v>8900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>10900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>14200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>17900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>16700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>19100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>15700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>18000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2237,208 +2327,223 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E43" s="3">
         <v>20000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>18400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>19300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>17600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>15500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>15000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>14100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>14000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>12500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>12300</v>
-      </c>
-      <c r="N43" s="3">
-        <v>10600</v>
       </c>
       <c r="O43" s="3">
         <v>10600</v>
       </c>
       <c r="P43" s="3">
+        <v>10600</v>
+      </c>
+      <c r="Q43" s="3">
         <v>8800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>9400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E44" s="3">
         <v>15900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>16100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>14000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>13600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>12500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>13600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>12000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>12800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>11600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>11100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>13400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>12500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>12600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>11600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2400</v>
-      </c>
-      <c r="K45" s="3">
-        <v>1900</v>
       </c>
       <c r="L45" s="3">
         <v>1900</v>
       </c>
       <c r="M45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="N45" s="3">
         <v>1800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>52800</v>
+      </c>
+      <c r="E46" s="3">
         <v>47200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>46200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>47100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>45200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>39200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>42200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>42700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>46500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>42600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>44200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>42300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>43000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>31100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>31700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2487,108 +2592,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E48" s="3">
         <v>6100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E49" s="3">
         <v>19500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>20300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>20900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>21500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>22400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>20300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>14900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>15500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>16100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2637,8 +2751,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2687,40 +2804,43 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E52" s="3">
         <v>1100</v>
       </c>
       <c r="F52" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G52" s="3">
         <v>1200</v>
       </c>
       <c r="H52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I52" s="3">
         <v>1300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1100</v>
-      </c>
-      <c r="M52" s="3">
-        <v>700</v>
       </c>
       <c r="N52" s="3">
         <v>700</v>
@@ -2729,16 +2849,19 @@
         <v>700</v>
       </c>
       <c r="P52" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q52" s="3">
         <v>800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2787,58 +2910,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>78500</v>
+      </c>
+      <c r="E54" s="3">
         <v>73800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>74300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>76500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>75900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>71600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>66300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>60900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>65000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>61900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>51400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>49800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>50800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>39500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>40600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2857,8 +2986,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2877,293 +3007,309 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E57" s="3">
         <v>8500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>7600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>8500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>7400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>6000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E58" s="3">
         <v>18400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>15500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>16000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>14300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>12800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>14600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>14200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>16500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>15300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>10700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>10800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>9400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>8700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>8900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E59" s="3">
         <v>9300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>10200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>10800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>11500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>10800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>9200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>7600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>41600</v>
+      </c>
+      <c r="E60" s="3">
         <v>36200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>34500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>34400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>34000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>29900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>29500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>26900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>31200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>31800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>21200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>24100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>23900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>22900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>22600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>500</v>
+      </c>
+      <c r="E61" s="3">
         <v>700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>10600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>11400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>13800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E62" s="3">
         <v>3500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1400</v>
-      </c>
-      <c r="L62" s="3">
-        <v>400</v>
       </c>
       <c r="M62" s="3">
         <v>400</v>
       </c>
       <c r="N62" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="O62" s="3">
         <v>200</v>
@@ -3172,13 +3318,16 @@
         <v>200</v>
       </c>
       <c r="Q62" s="3">
+        <v>200</v>
+      </c>
+      <c r="R62" s="3">
         <v>300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3227,8 +3376,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3277,8 +3429,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3327,58 +3482,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E66" s="3">
         <v>40400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>38900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>39700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>40100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>36600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>32400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>30700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>34800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>37300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>27300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>33900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>34500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>34300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>36500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>39300</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3397,8 +3558,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3447,8 +3609,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3497,8 +3662,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3547,8 +3715,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3597,58 +3768,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-410300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-407600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-405500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-403700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-404800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-405200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-404400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-405000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-404700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-402000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-399600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-395100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-394100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-392200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-391500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-390400</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3697,8 +3874,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3747,8 +3927,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3797,58 +3980,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>32500</v>
+      </c>
+      <c r="E76" s="3">
         <v>33300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>35500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>36700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>35700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>35000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>33900</v>
-      </c>
-      <c r="J76" s="3">
-        <v>30200</v>
       </c>
       <c r="K76" s="3">
         <v>30200</v>
       </c>
       <c r="L76" s="3">
+        <v>30200</v>
+      </c>
+      <c r="M76" s="3">
         <v>24600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>24000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>15900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>16400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3897,113 +4086,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4022,8 +4220,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
@@ -4031,19 +4230,19 @@
         <v>800</v>
       </c>
       <c r="E83" s="3">
+        <v>800</v>
+      </c>
+      <c r="F83" s="3">
         <v>900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1000</v>
-      </c>
-      <c r="G83" s="3">
-        <v>900</v>
       </c>
       <c r="H83" s="3">
         <v>900</v>
       </c>
       <c r="I83" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="J83" s="3">
         <v>800</v>
@@ -4052,7 +4251,7 @@
         <v>800</v>
       </c>
       <c r="L83" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M83" s="3">
         <v>700</v>
@@ -4064,16 +4263,19 @@
         <v>700</v>
       </c>
       <c r="P83" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q83" s="3">
         <v>600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4122,8 +4324,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4172,8 +4377,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4222,8 +4430,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4272,8 +4483,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4322,58 +4536,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-800</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4392,13 +4612,14 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
@@ -4407,34 +4628,34 @@
         <v>-100</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-200</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-100</v>
       </c>
       <c r="Q91" s="3">
         <v>-100</v>
@@ -4442,8 +4663,11 @@
       <c r="R91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4492,8 +4716,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4542,49 +4769,52 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
-        <v>-1400</v>
+        <v>0</v>
       </c>
       <c r="I94" s="3">
         <v>-1400</v>
       </c>
       <c r="J94" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-200</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-100</v>
       </c>
       <c r="Q94" s="3">
         <v>-100</v>
@@ -4592,8 +4822,11 @@
       <c r="R94" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -4612,8 +4845,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -4662,8 +4896,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -4712,8 +4949,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -4762,8 +5002,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -4812,154 +5055,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E100" s="3">
         <v>3400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>6200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>12300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-600</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>10100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INVE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INVE_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,244 +662,257 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E8" s="3">
         <v>19100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>18100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>19000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>23000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>22200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>19500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>21300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>20000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>20300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>16500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>16600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>15400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>14800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>13400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>14600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E9" s="3">
         <v>11400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>10600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>11400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>12500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>12400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>10800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>11100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>11500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>12100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>10000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>11600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>9600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>9200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>7700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>8400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E10" s="3">
         <v>7700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>7500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>7600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>10500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>9800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>8700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>10200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -919,8 +932,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -928,40 +942,40 @@
         <v>2400</v>
       </c>
       <c r="E12" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F12" s="3">
         <v>2600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2400</v>
-      </c>
-      <c r="G12" s="3">
-        <v>2100</v>
       </c>
       <c r="H12" s="3">
         <v>2100</v>
       </c>
       <c r="I12" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J12" s="3">
         <v>2000</v>
-      </c>
-      <c r="J12" s="3">
-        <v>1900</v>
       </c>
       <c r="K12" s="3">
         <v>1900</v>
       </c>
       <c r="L12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M12" s="3">
         <v>1800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1700</v>
-      </c>
-      <c r="N12" s="3">
-        <v>1600</v>
       </c>
       <c r="O12" s="3">
         <v>1600</v>
       </c>
       <c r="P12" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="Q12" s="3">
         <v>1500</v>
@@ -972,8 +986,11 @@
       <c r="S12" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,61 +1042,67 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>200</v>
+      </c>
+      <c r="E14" s="3">
         <v>1200</v>
-      </c>
-      <c r="E14" s="3">
-        <v>100</v>
       </c>
       <c r="F14" s="3">
         <v>100</v>
       </c>
       <c r="G14" s="3">
+        <v>100</v>
+      </c>
+      <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K14" s="3">
         <v>200</v>
       </c>
       <c r="L14" s="3">
+        <v>200</v>
+      </c>
+      <c r="M14" s="3">
         <v>1600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1800</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>-1000</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1105,7 +1128,7 @@
         <v>400</v>
       </c>
       <c r="K15" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L15" s="3">
         <v>300</v>
@@ -1131,8 +1154,11 @@
       <c r="S15" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1149,114 +1175,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E17" s="3">
         <v>21400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>20000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>20700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>21800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>21400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>20000</v>
-      </c>
-      <c r="J17" s="3">
-        <v>20200</v>
       </c>
       <c r="K17" s="3">
         <v>20200</v>
       </c>
       <c r="L17" s="3">
+        <v>20200</v>
+      </c>
+      <c r="M17" s="3">
         <v>22700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>18300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>20400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>15800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>16100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>13400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>14800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>15700</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1276,16 +1309,17 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-400</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-100</v>
       </c>
       <c r="F20" s="3">
         <v>-100</v>
@@ -1294,96 +1328,102 @@
         <v>-100</v>
       </c>
       <c r="H20" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="I20" s="3">
         <v>-300</v>
       </c>
       <c r="J20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-800</v>
       </c>
       <c r="R20" s="3">
         <v>-800</v>
       </c>
       <c r="S20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="T20" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1435,75 +1475,81 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
         <v>100</v>
@@ -1512,7 +1558,7 @@
         <v>100</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1524,25 +1570,28 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-100</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>-100</v>
-      </c>
-      <c r="R24" s="3">
-        <v>100</v>
       </c>
       <c r="S24" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1594,114 +1643,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1753,8 +1811,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1806,8 +1867,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1859,8 +1923,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1912,16 +1979,19 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>600</v>
+      </c>
+      <c r="E32" s="3">
         <v>400</v>
-      </c>
-      <c r="E32" s="3">
-        <v>100</v>
       </c>
       <c r="F32" s="3">
         <v>100</v>
@@ -1930,96 +2000,102 @@
         <v>100</v>
       </c>
       <c r="H32" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I32" s="3">
         <v>300</v>
       </c>
       <c r="J32" s="3">
+        <v>300</v>
+      </c>
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>600</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>800</v>
       </c>
       <c r="R32" s="3">
         <v>800</v>
       </c>
       <c r="S32" s="3">
+        <v>800</v>
+      </c>
+      <c r="T32" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2071,119 +2147,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2203,8 +2288,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2224,61 +2310,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E41" s="3">
         <v>13100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9400</v>
-      </c>
-      <c r="G41" s="3">
-        <v>11100</v>
       </c>
       <c r="H41" s="3">
         <v>11100</v>
       </c>
       <c r="I41" s="3">
+        <v>11100</v>
+      </c>
+      <c r="J41" s="3">
         <v>8900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>10900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>14200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>17900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>16700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>19100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>15700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>18000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2330,220 +2420,235 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E43" s="3">
         <v>18000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>20000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>18400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>19300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>17600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>15500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>15000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>14100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>14000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>12500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>12300</v>
-      </c>
-      <c r="O43" s="3">
-        <v>10600</v>
       </c>
       <c r="P43" s="3">
         <v>10600</v>
       </c>
       <c r="Q43" s="3">
+        <v>10600</v>
+      </c>
+      <c r="R43" s="3">
         <v>8800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>9400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E44" s="3">
         <v>18700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>15900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>16100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>14000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>13600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>12500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>13600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>12000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>12800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>11600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>11100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>13400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>12500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>12600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>11600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E45" s="3">
         <v>3000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2400</v>
-      </c>
-      <c r="L45" s="3">
-        <v>1900</v>
       </c>
       <c r="M45" s="3">
         <v>1900</v>
       </c>
       <c r="N45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="O45" s="3">
         <v>1800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>56300</v>
+      </c>
+      <c r="E46" s="3">
         <v>52800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>47200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>46200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>47100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>45200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>39200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>42200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>42700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>46500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>42600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>44200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>42300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>43000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>31100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>31700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2595,114 +2700,123 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E48" s="3">
         <v>5800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>8600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E49" s="3">
         <v>18900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>19500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>20300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>20900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>21500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>22400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>20300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>14900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>15500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>16100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2754,8 +2868,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2807,43 +2924,46 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E52" s="3">
         <v>1000</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1100</v>
       </c>
       <c r="F52" s="3">
         <v>1100</v>
       </c>
       <c r="G52" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="H52" s="3">
         <v>1200</v>
       </c>
       <c r="I52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J52" s="3">
         <v>1300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1100</v>
-      </c>
-      <c r="N52" s="3">
-        <v>700</v>
       </c>
       <c r="O52" s="3">
         <v>700</v>
@@ -2852,16 +2972,19 @@
         <v>700</v>
       </c>
       <c r="Q52" s="3">
+        <v>700</v>
+      </c>
+      <c r="R52" s="3">
         <v>800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2913,61 +3036,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>81600</v>
+      </c>
+      <c r="E54" s="3">
         <v>78500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>73800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>74300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>76500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>75900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>71600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>66300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>60900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>65000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>61900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>51400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>49800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>50800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>39500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>40600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2987,8 +3116,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3008,311 +3138,327 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E57" s="3">
         <v>9200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>7600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>8500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>7400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>6000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E58" s="3">
         <v>23800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>18400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>15500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>16000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>14300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>12800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>14600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>14200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>16500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>15300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>10700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>10800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>9400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>8700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>8900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E59" s="3">
         <v>8600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>10200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>10800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>11500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>10800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>9200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>9400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>7600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>43900</v>
+      </c>
+      <c r="E60" s="3">
         <v>41600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>36200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>34500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>34400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>34000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>29900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>29500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>26900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>31200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>31800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>21200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>24100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>23900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>22900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>22600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>200</v>
+      </c>
+      <c r="E61" s="3">
         <v>500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>10600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>11400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>13800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E62" s="3">
         <v>3900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1400</v>
-      </c>
-      <c r="M62" s="3">
-        <v>400</v>
       </c>
       <c r="N62" s="3">
         <v>400</v>
       </c>
       <c r="O62" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="P62" s="3">
         <v>200</v>
@@ -3321,13 +3467,16 @@
         <v>200</v>
       </c>
       <c r="R62" s="3">
+        <v>200</v>
+      </c>
+      <c r="S62" s="3">
         <v>300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3379,8 +3528,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3432,8 +3584,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3485,61 +3640,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>47700</v>
+      </c>
+      <c r="E66" s="3">
         <v>46000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>40400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>38900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>39700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>40100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>36600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>32400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>30700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>34800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>37300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>27300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>33900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>34500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>34300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>36500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>39300</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3559,8 +3720,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3612,8 +3774,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3665,8 +3830,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3718,8 +3886,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3771,61 +3942,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-409900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-410300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-407600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-405500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-403700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-404800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-405200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-404400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-405000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-404700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-402000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-399600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-395100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-394100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-392200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-391500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-390400</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3877,8 +4054,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3930,8 +4110,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3983,61 +4166,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>33900</v>
+      </c>
+      <c r="E76" s="3">
         <v>32500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>33300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>35500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>36700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>35700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>35000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>33900</v>
-      </c>
-      <c r="K76" s="3">
-        <v>30200</v>
       </c>
       <c r="L76" s="3">
         <v>30200</v>
       </c>
       <c r="M76" s="3">
+        <v>30200</v>
+      </c>
+      <c r="N76" s="3">
         <v>24600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>24000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>15900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>16400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4089,119 +4278,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4221,8 +4419,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
@@ -4233,19 +4432,19 @@
         <v>800</v>
       </c>
       <c r="F83" s="3">
+        <v>800</v>
+      </c>
+      <c r="G83" s="3">
         <v>900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1000</v>
-      </c>
-      <c r="H83" s="3">
-        <v>900</v>
       </c>
       <c r="I83" s="3">
         <v>900</v>
       </c>
       <c r="J83" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K83" s="3">
         <v>800</v>
@@ -4254,7 +4453,7 @@
         <v>800</v>
       </c>
       <c r="M83" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="N83" s="3">
         <v>700</v>
@@ -4266,16 +4465,19 @@
         <v>700</v>
       </c>
       <c r="Q83" s="3">
+        <v>700</v>
+      </c>
+      <c r="R83" s="3">
         <v>600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4327,8 +4529,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4380,8 +4585,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4433,8 +4641,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4486,8 +4697,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4539,61 +4753,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-800</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4613,16 +4833,17 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-500</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
@@ -4631,34 +4852,34 @@
         <v>-100</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-100</v>
       </c>
       <c r="R91" s="3">
         <v>-100</v>
@@ -4666,8 +4887,11 @@
       <c r="S91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4719,8 +4943,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4772,52 +4999,55 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
-        <v>-1400</v>
+        <v>0</v>
       </c>
       <c r="J94" s="3">
         <v>-1400</v>
       </c>
       <c r="K94" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="L94" s="3">
         <v>-400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-100</v>
       </c>
       <c r="R94" s="3">
         <v>-100</v>
@@ -4825,8 +5055,11 @@
       <c r="S94" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -4846,8 +5079,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -4899,8 +5133,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -4952,8 +5189,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5005,8 +5245,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -5058,163 +5301,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>5300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>6200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>12300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-600</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>300</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E102" s="3">
         <v>4400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>10100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INVE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INVE_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,257 +662,269 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E8" s="3">
         <v>24900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>19100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>18100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>19000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>23000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>22200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>19500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>21300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>20000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>20300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>16500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>16600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>15400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>14800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>13400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>14600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E9" s="3">
         <v>15000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>11400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>10600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>11400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>12500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>12400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>10800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>11100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>11500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>12100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>10000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>11600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>9600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>9200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>7700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>8400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E10" s="3">
         <v>9900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>7700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>7500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>7600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>10500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>9800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>8700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>10200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>6200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -933,8 +945,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -945,40 +958,40 @@
         <v>2400</v>
       </c>
       <c r="F12" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G12" s="3">
         <v>2600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2400</v>
-      </c>
-      <c r="H12" s="3">
-        <v>2100</v>
       </c>
       <c r="I12" s="3">
         <v>2100</v>
       </c>
       <c r="J12" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K12" s="3">
         <v>2000</v>
-      </c>
-      <c r="K12" s="3">
-        <v>1900</v>
       </c>
       <c r="L12" s="3">
         <v>1900</v>
       </c>
       <c r="M12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="N12" s="3">
         <v>1800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1700</v>
-      </c>
-      <c r="O12" s="3">
-        <v>1600</v>
       </c>
       <c r="P12" s="3">
         <v>1600</v>
       </c>
       <c r="Q12" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="R12" s="3">
         <v>1500</v>
@@ -989,8 +1002,11 @@
       <c r="T12" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1045,64 +1061,70 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1200</v>
-      </c>
-      <c r="F14" s="3">
-        <v>100</v>
       </c>
       <c r="G14" s="3">
         <v>100</v>
       </c>
       <c r="H14" s="3">
+        <v>100</v>
+      </c>
+      <c r="I14" s="3">
         <v>-100</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L14" s="3">
         <v>200</v>
       </c>
       <c r="M14" s="3">
+        <v>200</v>
+      </c>
+      <c r="N14" s="3">
         <v>1600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1800</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>-1000</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1131,7 +1153,7 @@
         <v>400</v>
       </c>
       <c r="L15" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M15" s="3">
         <v>300</v>
@@ -1157,8 +1179,11 @@
       <c r="T15" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1176,120 +1201,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E17" s="3">
         <v>23900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>21400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>20000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>20700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>21800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>21400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>20000</v>
-      </c>
-      <c r="K17" s="3">
-        <v>20200</v>
       </c>
       <c r="L17" s="3">
         <v>20200</v>
       </c>
       <c r="M17" s="3">
+        <v>20200</v>
+      </c>
+      <c r="N17" s="3">
         <v>22700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>18300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>20400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>15800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>16100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>13400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>14800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>15700</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E18" s="3">
         <v>1000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1300</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1310,19 +1342,20 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-400</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-100</v>
       </c>
       <c r="G20" s="3">
         <v>-100</v>
@@ -1331,99 +1364,105 @@
         <v>-100</v>
       </c>
       <c r="I20" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="J20" s="3">
         <v>-300</v>
       </c>
       <c r="K20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-600</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-800</v>
       </c>
       <c r="S20" s="3">
         <v>-800</v>
       </c>
       <c r="T20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="U20" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>100</v>
+      </c>
+      <c r="E21" s="3">
         <v>1200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-3900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1478,64 +1517,70 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E23" s="3">
         <v>400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1543,16 +1588,16 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
         <v>100</v>
@@ -1561,7 +1606,7 @@
         <v>100</v>
       </c>
       <c r="K24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1573,25 +1618,28 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>-100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>-100</v>
-      </c>
-      <c r="S24" s="3">
-        <v>100</v>
       </c>
       <c r="T24" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1646,120 +1694,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E26" s="3">
         <v>400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E27" s="3">
         <v>100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1814,8 +1871,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1870,8 +1930,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1926,8 +1989,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1982,19 +2048,22 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>400</v>
+      </c>
+      <c r="E32" s="3">
         <v>600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>400</v>
-      </c>
-      <c r="F32" s="3">
-        <v>100</v>
       </c>
       <c r="G32" s="3">
         <v>100</v>
@@ -2003,99 +2072,105 @@
         <v>100</v>
       </c>
       <c r="I32" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="J32" s="3">
         <v>300</v>
       </c>
       <c r="K32" s="3">
+        <v>300</v>
+      </c>
+      <c r="L32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>600</v>
-      </c>
-      <c r="R32" s="3">
-        <v>800</v>
       </c>
       <c r="S32" s="3">
         <v>800</v>
       </c>
       <c r="T32" s="3">
+        <v>800</v>
+      </c>
+      <c r="U32" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E33" s="3">
         <v>100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2150,125 +2225,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E35" s="3">
         <v>100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2289,8 +2373,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2311,64 +2396,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E41" s="3">
         <v>12300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>13100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9400</v>
-      </c>
-      <c r="H41" s="3">
-        <v>11100</v>
       </c>
       <c r="I41" s="3">
         <v>11100</v>
       </c>
       <c r="J41" s="3">
+        <v>11100</v>
+      </c>
+      <c r="K41" s="3">
         <v>8900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>14200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>17900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>16700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>19100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>15700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>18000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>9100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2423,232 +2512,247 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E43" s="3">
         <v>20400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>18000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>20000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>18400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>19300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>17600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>15500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>15000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>14100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>14000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>12500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>12300</v>
-      </c>
-      <c r="P43" s="3">
-        <v>10600</v>
       </c>
       <c r="Q43" s="3">
         <v>10600</v>
       </c>
       <c r="R43" s="3">
+        <v>10600</v>
+      </c>
+      <c r="S43" s="3">
         <v>8800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>9400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E44" s="3">
         <v>20400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>18700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>15900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>16100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>14000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>13600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>12500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>13600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>12000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>12800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>11600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>11100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>13400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>12500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>12600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>11600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E45" s="3">
         <v>3200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2400</v>
-      </c>
-      <c r="M45" s="3">
-        <v>1900</v>
       </c>
       <c r="N45" s="3">
         <v>1900</v>
       </c>
       <c r="O45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="P45" s="3">
         <v>1800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>53400</v>
+      </c>
+      <c r="E46" s="3">
         <v>56300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>52800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>47200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>46200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>47100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>45200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>39200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>42200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>42700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>46500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>42600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>44200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>42300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>43000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>31100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>31700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2703,120 +2807,129 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E48" s="3">
         <v>5900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>8000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>8600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E49" s="3">
         <v>18300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>18900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>19500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>20300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>20900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>21500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>22400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>20300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>14900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>15500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>16100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2871,8 +2984,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2927,46 +3043,49 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E52" s="3">
         <v>1100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1000</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1100</v>
       </c>
       <c r="G52" s="3">
         <v>1100</v>
       </c>
       <c r="H52" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="I52" s="3">
         <v>1200</v>
       </c>
       <c r="J52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K52" s="3">
         <v>1300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1100</v>
-      </c>
-      <c r="O52" s="3">
-        <v>700</v>
       </c>
       <c r="P52" s="3">
         <v>700</v>
@@ -2975,16 +3094,19 @@
         <v>700</v>
       </c>
       <c r="R52" s="3">
+        <v>700</v>
+      </c>
+      <c r="S52" s="3">
         <v>800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3039,64 +3161,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>78700</v>
+      </c>
+      <c r="E54" s="3">
         <v>81600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>78500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>73800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>74300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>76500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>75900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>71600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>66300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>60900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>65000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>61900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>51400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>49800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>50800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>39500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>40600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3117,8 +3245,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3139,329 +3268,345 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E57" s="3">
         <v>9500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>9200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>7600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>8200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>7000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>7600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>8500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>7400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>6000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E58" s="3">
         <v>24700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>23800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>18400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>15500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>16000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>14300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>12800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>14600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>14200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>16500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>15300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>10700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>10800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>9400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>8700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>8900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E59" s="3">
         <v>9700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>10200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>10800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>11500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>10800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>9400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>7600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>41600</v>
+      </c>
+      <c r="E60" s="3">
         <v>43900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>41600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>36200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>34500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>34400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>34000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>29900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>29500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>26900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>31200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>31800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>21200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>24100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>23900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>22900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>22600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>10600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>11400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>13800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E62" s="3">
         <v>3500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>5300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1400</v>
-      </c>
-      <c r="N62" s="3">
-        <v>400</v>
       </c>
       <c r="O62" s="3">
         <v>400</v>
       </c>
       <c r="P62" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="Q62" s="3">
         <v>200</v>
@@ -3470,13 +3615,16 @@
         <v>200</v>
       </c>
       <c r="S62" s="3">
+        <v>200</v>
+      </c>
+      <c r="T62" s="3">
         <v>300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3531,8 +3679,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3587,8 +3738,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3643,64 +3797,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>44500</v>
+      </c>
+      <c r="E66" s="3">
         <v>47700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>46000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>40400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>38900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>39700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>40100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>36600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>32400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>30700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>34800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>37300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>27300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>33900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>34500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>34300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>36500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>39300</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3721,8 +3881,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3777,8 +3938,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3833,8 +3997,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3889,8 +4056,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3945,64 +4115,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-410600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-409900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-410300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-407600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-405500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-403700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-404800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-405200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-404400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-405000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-404700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-402000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-399600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-395100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-394100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-392200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-391500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-390400</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4057,8 +4233,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4113,8 +4292,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4169,64 +4351,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>34200</v>
+      </c>
+      <c r="E76" s="3">
         <v>33900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>32500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>33300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>35500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>36700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>35700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>35000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>33900</v>
-      </c>
-      <c r="L76" s="3">
-        <v>30200</v>
       </c>
       <c r="M76" s="3">
         <v>30200</v>
       </c>
       <c r="N76" s="3">
+        <v>30200</v>
+      </c>
+      <c r="O76" s="3">
         <v>24600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>24000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>15900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>16400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4281,125 +4469,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E81" s="3">
         <v>100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4420,8 +4617,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
@@ -4435,19 +4633,19 @@
         <v>800</v>
       </c>
       <c r="G83" s="3">
+        <v>800</v>
+      </c>
+      <c r="H83" s="3">
         <v>900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1000</v>
-      </c>
-      <c r="I83" s="3">
-        <v>900</v>
       </c>
       <c r="J83" s="3">
         <v>900</v>
       </c>
       <c r="K83" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L83" s="3">
         <v>800</v>
@@ -4456,7 +4654,7 @@
         <v>800</v>
       </c>
       <c r="N83" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="O83" s="3">
         <v>700</v>
@@ -4468,16 +4666,19 @@
         <v>700</v>
       </c>
       <c r="R83" s="3">
+        <v>700</v>
+      </c>
+      <c r="S83" s="3">
         <v>600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4532,8 +4733,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4588,8 +4792,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4644,8 +4851,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4700,8 +4910,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4756,64 +4969,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-800</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4834,19 +5053,20 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-500</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-100</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
@@ -4855,34 +5075,34 @@
         <v>-100</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-200</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-100</v>
       </c>
       <c r="S91" s="3">
         <v>-100</v>
@@ -4890,8 +5110,11 @@
       <c r="T91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4946,8 +5169,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5002,55 +5228,58 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
-        <v>-1400</v>
+        <v>0</v>
       </c>
       <c r="K94" s="3">
         <v>-1400</v>
       </c>
       <c r="L94" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="M94" s="3">
         <v>-400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-200</v>
-      </c>
-      <c r="R94" s="3">
-        <v>-100</v>
       </c>
       <c r="S94" s="3">
         <v>-100</v>
@@ -5058,8 +5287,11 @@
       <c r="T94" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -5080,8 +5312,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -5136,8 +5369,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -5192,8 +5428,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5248,8 +5487,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -5304,64 +5546,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>5300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>6200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>12300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-600</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
@@ -5369,107 +5617,113 @@
         <v>300</v>
       </c>
       <c r="E101" s="3">
+        <v>300</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>4400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>10100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INVE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INVE_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,269 +662,282 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E8" s="3">
         <v>24800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>24900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>19100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>18100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>19000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>23000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>22200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>19500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>21300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>20000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>20300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>16500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>16600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>15400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>14800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>13400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>14600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E9" s="3">
         <v>16300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>15000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>11400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>10600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>11400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>12500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>12400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>11100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>11500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>12100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>10000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>11600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>9600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>9200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>7700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>8400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E10" s="3">
         <v>8500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>9900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>7700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>7500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>7600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>10500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>9800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>10200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>8200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>6200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -946,13 +959,14 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="E12" s="3">
         <v>2400</v>
@@ -961,40 +975,40 @@
         <v>2400</v>
       </c>
       <c r="G12" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H12" s="3">
         <v>2600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2400</v>
-      </c>
-      <c r="I12" s="3">
-        <v>2100</v>
       </c>
       <c r="J12" s="3">
         <v>2100</v>
       </c>
       <c r="K12" s="3">
+        <v>2100</v>
+      </c>
+      <c r="L12" s="3">
         <v>2000</v>
-      </c>
-      <c r="L12" s="3">
-        <v>1900</v>
       </c>
       <c r="M12" s="3">
         <v>1900</v>
       </c>
       <c r="N12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="O12" s="3">
         <v>1800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1700</v>
-      </c>
-      <c r="P12" s="3">
-        <v>1600</v>
       </c>
       <c r="Q12" s="3">
         <v>1600</v>
       </c>
       <c r="R12" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="S12" s="3">
         <v>1500</v>
@@ -1005,8 +1019,11 @@
       <c r="U12" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1064,72 +1081,78 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>400</v>
+      </c>
+      <c r="E14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1200</v>
-      </c>
-      <c r="G14" s="3">
-        <v>100</v>
       </c>
       <c r="H14" s="3">
         <v>100</v>
       </c>
       <c r="I14" s="3">
+        <v>100</v>
+      </c>
+      <c r="J14" s="3">
         <v>-100</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M14" s="3">
         <v>200</v>
       </c>
       <c r="N14" s="3">
+        <v>200</v>
+      </c>
+      <c r="O14" s="3">
         <v>1600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1800</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>-1000</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E15" s="3">
         <v>400</v>
@@ -1156,7 +1179,7 @@
         <v>400</v>
       </c>
       <c r="M15" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N15" s="3">
         <v>300</v>
@@ -1182,8 +1205,11 @@
       <c r="U15" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1202,126 +1228,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E17" s="3">
         <v>25200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>23900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>21400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>20000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>20700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>21800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>21400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>20000</v>
-      </c>
-      <c r="L17" s="3">
-        <v>20200</v>
       </c>
       <c r="M17" s="3">
         <v>20200</v>
       </c>
       <c r="N17" s="3">
+        <v>20200</v>
+      </c>
+      <c r="O17" s="3">
         <v>22700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>18300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>20400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>15800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>16100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>13400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>14800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>15700</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1300</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
       <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1343,22 +1376,23 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-400</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-100</v>
       </c>
       <c r="H20" s="3">
         <v>-100</v>
@@ -1367,102 +1401,108 @@
         <v>-100</v>
       </c>
       <c r="J20" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="K20" s="3">
         <v>-300</v>
       </c>
       <c r="L20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M20" s="3">
         <v>-400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-600</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-800</v>
       </c>
       <c r="T20" s="3">
         <v>-800</v>
       </c>
       <c r="U20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="V20" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E21" s="3">
         <v>100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1520,67 +1560,73 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1591,16 +1637,16 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J24" s="3">
         <v>100</v>
@@ -1609,7 +1655,7 @@
         <v>100</v>
       </c>
       <c r="L24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1621,25 +1667,28 @@
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-100</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>-100</v>
-      </c>
-      <c r="T24" s="3">
-        <v>100</v>
       </c>
       <c r="U24" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1697,126 +1746,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1874,8 +1932,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1933,8 +1994,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1992,8 +2056,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2051,22 +2118,25 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>200</v>
+      </c>
+      <c r="E32" s="3">
         <v>400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>400</v>
-      </c>
-      <c r="G32" s="3">
-        <v>100</v>
       </c>
       <c r="H32" s="3">
         <v>100</v>
@@ -2075,102 +2145,108 @@
         <v>100</v>
       </c>
       <c r="J32" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K32" s="3">
         <v>300</v>
       </c>
       <c r="L32" s="3">
+        <v>300</v>
+      </c>
+      <c r="M32" s="3">
         <v>400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>600</v>
-      </c>
-      <c r="S32" s="3">
-        <v>800</v>
       </c>
       <c r="T32" s="3">
         <v>800</v>
       </c>
       <c r="U32" s="3">
+        <v>800</v>
+      </c>
+      <c r="V32" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2228,131 +2304,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2374,8 +2459,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2397,67 +2483,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E41" s="3">
         <v>11400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>12300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>13100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9400</v>
-      </c>
-      <c r="I41" s="3">
-        <v>11100</v>
       </c>
       <c r="J41" s="3">
         <v>11100</v>
       </c>
       <c r="K41" s="3">
+        <v>11100</v>
+      </c>
+      <c r="L41" s="3">
         <v>8900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>14200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>17900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>16700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>19100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>15700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>18000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>7900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>9100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2515,8 +2605,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
@@ -2524,235 +2617,247 @@
         <v>18900</v>
       </c>
       <c r="E43" s="3">
+        <v>18900</v>
+      </c>
+      <c r="F43" s="3">
         <v>20400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>18000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>20000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>18400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>19300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>17600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>15500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>15000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>14100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>14000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>12500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>12300</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>10600</v>
       </c>
       <c r="R43" s="3">
         <v>10600</v>
       </c>
       <c r="S43" s="3">
+        <v>10600</v>
+      </c>
+      <c r="T43" s="3">
         <v>8800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>9400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E44" s="3">
         <v>20300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>20400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>18700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>15900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>16100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>14000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>13600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>12500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>13600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>12000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>12800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>11600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>11100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>13400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>12500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>12600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>11600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E45" s="3">
         <v>2800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2400</v>
-      </c>
-      <c r="N45" s="3">
-        <v>1900</v>
       </c>
       <c r="O45" s="3">
         <v>1900</v>
       </c>
       <c r="P45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Q45" s="3">
         <v>1800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>52800</v>
+      </c>
+      <c r="E46" s="3">
         <v>53400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>56300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>52800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>47200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>46200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>47100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>45200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>39200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>42200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>42700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>46500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>42600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>44200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>42300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>43000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>31100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>31700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2810,126 +2915,135 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E48" s="3">
         <v>6200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>8000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E49" s="3">
         <v>17800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>18300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>18900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>19500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>20300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>20900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>21500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>22400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>20300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>14900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>15500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>16100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2987,8 +3101,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3046,49 +3163,52 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E52" s="3">
         <v>1200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1000</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1100</v>
       </c>
       <c r="H52" s="3">
         <v>1100</v>
       </c>
       <c r="I52" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="J52" s="3">
         <v>1200</v>
       </c>
       <c r="K52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L52" s="3">
         <v>1300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1100</v>
-      </c>
-      <c r="P52" s="3">
-        <v>700</v>
       </c>
       <c r="Q52" s="3">
         <v>700</v>
@@ -3097,16 +3217,19 @@
         <v>700</v>
       </c>
       <c r="S52" s="3">
+        <v>700</v>
+      </c>
+      <c r="T52" s="3">
         <v>800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3164,67 +3287,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>78300</v>
+      </c>
+      <c r="E54" s="3">
         <v>78700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>81600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>78500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>73800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>74300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>76500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>75900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>71600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>66300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>60900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>65000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>61900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>51400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>49800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>50800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>39500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>40600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3246,8 +3375,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3269,244 +3399,257 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E57" s="3">
         <v>11000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>9500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>9200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>7600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>8200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>7200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>7000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>7600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>8500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>7400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>6000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>23100</v>
+      </c>
+      <c r="E58" s="3">
         <v>21100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>24700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>23800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>18400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>15500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>16000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>14300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>12800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>14600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>14200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>16500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>15300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>10700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>10800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>9400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>8700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>8900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E59" s="3">
         <v>9500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>9300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>10200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>10800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>11500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>10800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>9400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>6700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>7600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>42700</v>
+      </c>
+      <c r="E60" s="3">
         <v>41600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>43900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>41600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>36200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>34500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>34400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>34000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>29900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>29500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>26900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>31200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>31800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>21200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>24100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>23900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>22900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>22600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
@@ -3514,102 +3657,105 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>9800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>10600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>11400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>13800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E62" s="3">
         <v>2900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>5000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1400</v>
-      </c>
-      <c r="O62" s="3">
-        <v>400</v>
       </c>
       <c r="P62" s="3">
         <v>400</v>
       </c>
       <c r="Q62" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="R62" s="3">
         <v>200</v>
@@ -3618,13 +3764,16 @@
         <v>200</v>
       </c>
       <c r="T62" s="3">
+        <v>200</v>
+      </c>
+      <c r="U62" s="3">
         <v>300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3682,8 +3831,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3741,8 +3893,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3800,67 +3955,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>45300</v>
+      </c>
+      <c r="E66" s="3">
         <v>44500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>47700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>46000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>40400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>38900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>39700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>40100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>36600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>32400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>30700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>34800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>37300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>27300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>33900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>34500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>34300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>36500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>39300</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3882,8 +4043,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3941,8 +4103,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4000,8 +4165,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4059,8 +4227,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4118,67 +4289,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-412100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-410600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-409900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-410300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-407600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-405500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-403700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-404800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-405200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-404400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-405000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-404700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-402000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-399600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-395100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-394100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-392200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-391500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-390400</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4236,8 +4413,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4295,8 +4475,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4354,67 +4537,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E76" s="3">
         <v>34200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>33900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>32500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>33300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>35500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>36700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>35700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>35000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>33900</v>
-      </c>
-      <c r="M76" s="3">
-        <v>30200</v>
       </c>
       <c r="N76" s="3">
         <v>30200</v>
       </c>
       <c r="O76" s="3">
+        <v>30200</v>
+      </c>
+      <c r="P76" s="3">
         <v>24600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>24000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>15900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>16400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4472,131 +4661,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4618,13 +4816,14 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="E83" s="3">
         <v>800</v>
@@ -4636,19 +4835,19 @@
         <v>800</v>
       </c>
       <c r="H83" s="3">
+        <v>800</v>
+      </c>
+      <c r="I83" s="3">
         <v>900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>900</v>
       </c>
       <c r="K83" s="3">
         <v>900</v>
       </c>
       <c r="L83" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M83" s="3">
         <v>800</v>
@@ -4657,7 +4856,7 @@
         <v>800</v>
       </c>
       <c r="O83" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="P83" s="3">
         <v>700</v>
@@ -4669,16 +4868,19 @@
         <v>700</v>
       </c>
       <c r="S83" s="3">
+        <v>700</v>
+      </c>
+      <c r="T83" s="3">
         <v>600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4736,8 +4938,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4795,8 +5000,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4854,8 +5062,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4913,8 +5124,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4972,67 +5186,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
         <v>3600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-3000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-800</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5054,22 +5274,23 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-500</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-100</v>
       </c>
       <c r="H91" s="3">
         <v>-100</v>
@@ -5078,34 +5299,34 @@
         <v>-100</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-200</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-100</v>
       </c>
       <c r="T91" s="3">
         <v>-100</v>
@@ -5113,8 +5334,11 @@
       <c r="U91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -5172,8 +5396,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5231,58 +5458,61 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
-        <v>-1400</v>
+        <v>0</v>
       </c>
       <c r="L94" s="3">
         <v>-1400</v>
       </c>
       <c r="M94" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="N94" s="3">
         <v>-400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-200</v>
-      </c>
-      <c r="S94" s="3">
-        <v>-100</v>
       </c>
       <c r="T94" s="3">
         <v>-100</v>
@@ -5290,8 +5520,11 @@
       <c r="U94" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -5313,8 +5546,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -5372,8 +5606,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -5431,8 +5668,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5490,8 +5730,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -5549,181 +5792,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>5300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>3400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>4900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>6200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>12300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-600</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>300</v>
+        <v>-300</v>
       </c>
       <c r="E101" s="3">
         <v>300</v>
       </c>
       <c r="F101" s="3">
+        <v>300</v>
+      </c>
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>4400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>10100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INVE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INVE_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,282 +662,295 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E8" s="3">
         <v>22200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>24800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>24900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>19100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>18100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>19000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>23000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>22200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>19500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>21300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>20000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>20300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>16500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>16600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>15400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>14800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>13400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>14600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E9" s="3">
         <v>14500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>16300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>15000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>11400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>10600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>11400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>12500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>11100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>11500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>12100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>10000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>11600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>9600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>9200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>7700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>8400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E10" s="3">
         <v>7700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>8500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>9900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>7700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>7500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>7600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>10500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>10200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>8500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>5700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>6200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -960,16 +973,17 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E12" s="3">
         <v>2300</v>
-      </c>
-      <c r="E12" s="3">
-        <v>2400</v>
       </c>
       <c r="F12" s="3">
         <v>2400</v>
@@ -978,40 +992,40 @@
         <v>2400</v>
       </c>
       <c r="H12" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I12" s="3">
         <v>2600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2400</v>
-      </c>
-      <c r="J12" s="3">
-        <v>2100</v>
       </c>
       <c r="K12" s="3">
         <v>2100</v>
       </c>
       <c r="L12" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M12" s="3">
         <v>2000</v>
-      </c>
-      <c r="M12" s="3">
-        <v>1900</v>
       </c>
       <c r="N12" s="3">
         <v>1900</v>
       </c>
       <c r="O12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="P12" s="3">
         <v>1800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1700</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>1600</v>
       </c>
       <c r="R12" s="3">
         <v>1600</v>
       </c>
       <c r="S12" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="T12" s="3">
         <v>1500</v>
@@ -1022,8 +1036,11 @@
       <c r="V12" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1084,70 +1101,76 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E14" s="3">
         <v>400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1200</v>
-      </c>
-      <c r="H14" s="3">
-        <v>100</v>
       </c>
       <c r="I14" s="3">
         <v>100</v>
       </c>
       <c r="J14" s="3">
+        <v>100</v>
+      </c>
+      <c r="K14" s="3">
         <v>-100</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N14" s="3">
         <v>200</v>
       </c>
       <c r="O14" s="3">
+        <v>200</v>
+      </c>
+      <c r="P14" s="3">
         <v>1600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1800</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>-1000</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1155,7 +1178,7 @@
         <v>200</v>
       </c>
       <c r="E15" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F15" s="3">
         <v>400</v>
@@ -1182,7 +1205,7 @@
         <v>400</v>
       </c>
       <c r="N15" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O15" s="3">
         <v>300</v>
@@ -1208,8 +1231,11 @@
       <c r="V15" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1229,132 +1255,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E17" s="3">
         <v>23400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>25200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>23900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>21400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>20000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>20700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>21800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>21400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>20000</v>
-      </c>
-      <c r="M17" s="3">
-        <v>20200</v>
       </c>
       <c r="N17" s="3">
         <v>20200</v>
       </c>
       <c r="O17" s="3">
+        <v>20200</v>
+      </c>
+      <c r="P17" s="3">
         <v>22700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>18300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>20400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>15800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>16100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>13400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>14800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>15700</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1300</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
       <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1377,8 +1410,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1386,16 +1420,16 @@
         <v>-200</v>
       </c>
       <c r="E20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-400</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-100</v>
       </c>
       <c r="I20" s="3">
         <v>-100</v>
@@ -1404,105 +1438,111 @@
         <v>-100</v>
       </c>
       <c r="K20" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="L20" s="3">
         <v>-300</v>
       </c>
       <c r="M20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N20" s="3">
         <v>-400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-600</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-800</v>
       </c>
       <c r="U20" s="3">
         <v>-800</v>
       </c>
       <c r="V20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="W20" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-3900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1563,70 +1603,76 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-4600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1640,16 +1686,16 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
       <c r="J24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K24" s="3">
         <v>100</v>
@@ -1658,7 +1704,7 @@
         <v>100</v>
       </c>
       <c r="M24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1670,25 +1716,28 @@
         <v>0</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>-100</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>-100</v>
-      </c>
-      <c r="U24" s="3">
-        <v>100</v>
       </c>
       <c r="V24" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1749,132 +1798,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-4500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-4500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1935,8 +1993,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1997,8 +2058,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2059,8 +2123,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2121,8 +2188,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -2130,16 +2200,16 @@
         <v>200</v>
       </c>
       <c r="E32" s="3">
+        <v>200</v>
+      </c>
+      <c r="F32" s="3">
         <v>400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>400</v>
-      </c>
-      <c r="H32" s="3">
-        <v>100</v>
       </c>
       <c r="I32" s="3">
         <v>100</v>
@@ -2148,105 +2218,111 @@
         <v>100</v>
       </c>
       <c r="K32" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L32" s="3">
         <v>300</v>
       </c>
       <c r="M32" s="3">
+        <v>300</v>
+      </c>
+      <c r="N32" s="3">
         <v>400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>600</v>
-      </c>
-      <c r="T32" s="3">
-        <v>800</v>
       </c>
       <c r="U32" s="3">
         <v>800</v>
       </c>
       <c r="V32" s="3">
+        <v>800</v>
+      </c>
+      <c r="W32" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-4500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2307,137 +2383,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-4500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2460,8 +2545,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2484,70 +2570,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>36400</v>
+      </c>
+      <c r="E41" s="3">
         <v>11500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>11400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>12300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>13100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9400</v>
-      </c>
-      <c r="J41" s="3">
-        <v>11100</v>
       </c>
       <c r="K41" s="3">
         <v>11100</v>
       </c>
       <c r="L41" s="3">
+        <v>11100</v>
+      </c>
+      <c r="M41" s="3">
         <v>8900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>14200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>17900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>16700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>19100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>15700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>18000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>7900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>9100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2608,256 +2698,271 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>18900</v>
+        <v>17700</v>
       </c>
       <c r="E43" s="3">
         <v>18900</v>
       </c>
       <c r="F43" s="3">
+        <v>18900</v>
+      </c>
+      <c r="G43" s="3">
         <v>20400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>18000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>20000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>18400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>19300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>17600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>15500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>15000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>14100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>14000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>12500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>12300</v>
-      </c>
-      <c r="R43" s="3">
-        <v>10600</v>
       </c>
       <c r="S43" s="3">
         <v>10600</v>
       </c>
       <c r="T43" s="3">
+        <v>10600</v>
+      </c>
+      <c r="U43" s="3">
         <v>8800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>9400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E44" s="3">
         <v>19300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>20300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>20400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>18700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>15900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>16100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>14000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>13600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>12500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>13600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>12000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>12800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>11600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>11100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>13400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>12500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>12600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>11600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E45" s="3">
         <v>3100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2400</v>
-      </c>
-      <c r="O45" s="3">
-        <v>1900</v>
       </c>
       <c r="P45" s="3">
         <v>1900</v>
       </c>
       <c r="Q45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="R45" s="3">
         <v>1800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>80700</v>
+      </c>
+      <c r="E46" s="3">
         <v>52800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>53400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>56300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>52800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>47200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>46200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>47100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>45200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>39200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>42200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>42700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>46500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>42600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>44200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>42300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>43000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>31100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>31700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2918,132 +3023,141 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E48" s="3">
         <v>6700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E49" s="3">
         <v>17600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>17800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>18300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>18900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>19500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>20300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>20900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>21500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>22400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>20300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>14900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>15500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>16100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3104,8 +3218,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3166,8 +3283,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
@@ -3175,43 +3295,43 @@
         <v>1100</v>
       </c>
       <c r="E52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F52" s="3">
         <v>1200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1000</v>
-      </c>
-      <c r="H52" s="3">
-        <v>1100</v>
       </c>
       <c r="I52" s="3">
         <v>1100</v>
       </c>
       <c r="J52" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="K52" s="3">
         <v>1200</v>
       </c>
       <c r="L52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M52" s="3">
         <v>1300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>700</v>
       </c>
       <c r="R52" s="3">
         <v>700</v>
@@ -3220,16 +3340,19 @@
         <v>700</v>
       </c>
       <c r="T52" s="3">
+        <v>700</v>
+      </c>
+      <c r="U52" s="3">
         <v>800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3290,70 +3413,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>105900</v>
+      </c>
+      <c r="E54" s="3">
         <v>78300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>78700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>81600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>78500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>73800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>74300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>76500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>75900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>71600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>66300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>60900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>65000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>61900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>51400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>49800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>50800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>39500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>40600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3376,8 +3505,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3400,256 +3530,269 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E57" s="3">
         <v>10200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>11000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>9500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>9200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>8800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>7600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>7200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>7000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>7600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>8500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>7400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>6000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E58" s="3">
         <v>23100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>21100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>24700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>23800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>18400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>15500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>16000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>14300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>12800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>14600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>14200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>16500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>15300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>10700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>10800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>9400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>8700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>8900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E59" s="3">
         <v>9400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>9300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>10200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>10800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>10800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>9200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>7400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>9400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>6000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>6700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>7600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>30100</v>
+      </c>
+      <c r="E60" s="3">
         <v>42700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>41600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>43900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>41600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>36200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>34500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>34400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>34000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>29900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>29500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>26900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>31200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>31800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>21200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>24100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>23900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>22900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>22600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
@@ -3660,105 +3803,108 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>9800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>10600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>11400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>13800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E62" s="3">
         <v>2600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1400</v>
-      </c>
-      <c r="P62" s="3">
-        <v>400</v>
       </c>
       <c r="Q62" s="3">
         <v>400</v>
       </c>
       <c r="R62" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S62" s="3">
         <v>200</v>
@@ -3767,13 +3913,16 @@
         <v>200</v>
       </c>
       <c r="U62" s="3">
+        <v>200</v>
+      </c>
+      <c r="V62" s="3">
         <v>300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3834,8 +3983,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3896,8 +4048,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3958,70 +4113,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>32200</v>
+      </c>
+      <c r="E66" s="3">
         <v>45300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>44500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>47700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>46000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>40400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>38900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>39700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>40100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>36600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>32400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>30700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>34800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>37300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>27300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>33900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>34500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>34300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>36500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>39300</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4044,8 +4205,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4106,8 +4268,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4168,8 +4333,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4230,8 +4398,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4292,70 +4463,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-409600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-412100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-410600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-409900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-410300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-407600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-405500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-403700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-404800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-405200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-404400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-405000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-404700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-402000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-399600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-395100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-394100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-392200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-391500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-390400</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4416,8 +4593,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4478,8 +4658,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4540,70 +4723,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>73700</v>
+      </c>
+      <c r="E76" s="3">
         <v>33000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>34200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>33900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>32500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>33300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>35500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>36700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>35700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>35000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>33900</v>
-      </c>
-      <c r="N76" s="3">
-        <v>30200</v>
       </c>
       <c r="O76" s="3">
         <v>30200</v>
       </c>
       <c r="P76" s="3">
+        <v>30200</v>
+      </c>
+      <c r="Q76" s="3">
         <v>24600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>24000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>15900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>16400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>5200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>4100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4664,137 +4853,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-4500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4817,8 +5015,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
@@ -4826,7 +5025,7 @@
         <v>500</v>
       </c>
       <c r="E83" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="F83" s="3">
         <v>800</v>
@@ -4838,19 +5037,19 @@
         <v>800</v>
       </c>
       <c r="I83" s="3">
+        <v>800</v>
+      </c>
+      <c r="J83" s="3">
         <v>900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1000</v>
-      </c>
-      <c r="K83" s="3">
-        <v>900</v>
       </c>
       <c r="L83" s="3">
         <v>900</v>
       </c>
       <c r="M83" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="N83" s="3">
         <v>800</v>
@@ -4859,7 +5058,7 @@
         <v>800</v>
       </c>
       <c r="P83" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Q83" s="3">
         <v>700</v>
@@ -4871,16 +5070,19 @@
         <v>700</v>
       </c>
       <c r="T83" s="3">
+        <v>700</v>
+      </c>
+      <c r="U83" s="3">
         <v>600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4941,8 +5143,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5003,8 +5208,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5065,8 +5273,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5127,8 +5338,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5189,70 +5403,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-3000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-800</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5275,25 +5495,26 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-500</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-100</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
@@ -5302,34 +5523,34 @@
         <v>-100</v>
       </c>
       <c r="K91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-200</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-100</v>
       </c>
       <c r="U91" s="3">
         <v>-100</v>
@@ -5337,8 +5558,11 @@
       <c r="V91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -5399,8 +5623,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5461,61 +5688,64 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
-        <v>-1400</v>
+        <v>0</v>
       </c>
       <c r="M94" s="3">
         <v>-1400</v>
       </c>
       <c r="N94" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="O94" s="3">
         <v>-400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-200</v>
-      </c>
-      <c r="T94" s="3">
-        <v>-100</v>
       </c>
       <c r="U94" s="3">
         <v>-100</v>
@@ -5523,8 +5753,11 @@
       <c r="V94" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -5547,8 +5780,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -5609,8 +5843,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -5671,8 +5908,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5733,8 +5973,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -5795,190 +6038,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E100" s="3">
         <v>2000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>5300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>3400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>4900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>6200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>12300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-600</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
-      </c>
-      <c r="E101" s="3">
-        <v>300</v>
       </c>
       <c r="F101" s="3">
         <v>300</v>
       </c>
       <c r="G101" s="3">
+        <v>300</v>
+      </c>
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>4400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>3300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>10100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INVE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INVE_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,295 +662,308 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E8" s="3">
         <v>24000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>22200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>24800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>24900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>19100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>18100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>19000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>23000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>22200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>19500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>21300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>20000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>20300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>16500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>16600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>15400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>14800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>13400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>14600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E9" s="3">
         <v>15200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>14500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>16300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>15000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>11400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>10600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>11400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>12400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>10800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>11100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>11500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>12100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>10000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>11600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>9600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>9200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>7700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>8400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E10" s="3">
         <v>8800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>7700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>8500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>9900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>7700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>7500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>7600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>10500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>9800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>10200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>8200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>5600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>5700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>6200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -974,8 +987,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -983,10 +997,10 @@
         <v>2100</v>
       </c>
       <c r="E12" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F12" s="3">
         <v>2300</v>
-      </c>
-      <c r="F12" s="3">
-        <v>2400</v>
       </c>
       <c r="G12" s="3">
         <v>2400</v>
@@ -995,40 +1009,40 @@
         <v>2400</v>
       </c>
       <c r="I12" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J12" s="3">
         <v>2600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2400</v>
-      </c>
-      <c r="K12" s="3">
-        <v>2100</v>
       </c>
       <c r="L12" s="3">
         <v>2100</v>
       </c>
       <c r="M12" s="3">
+        <v>2100</v>
+      </c>
+      <c r="N12" s="3">
         <v>2000</v>
-      </c>
-      <c r="N12" s="3">
-        <v>1900</v>
       </c>
       <c r="O12" s="3">
         <v>1900</v>
       </c>
       <c r="P12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Q12" s="3">
         <v>1800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1700</v>
-      </c>
-      <c r="R12" s="3">
-        <v>1600</v>
       </c>
       <c r="S12" s="3">
         <v>1600</v>
       </c>
       <c r="T12" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="U12" s="3">
         <v>1500</v>
@@ -1039,8 +1053,11 @@
       <c r="W12" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1104,73 +1121,79 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3">
         <v>-2700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1200</v>
-      </c>
-      <c r="I14" s="3">
-        <v>100</v>
       </c>
       <c r="J14" s="3">
         <v>100</v>
       </c>
       <c r="K14" s="3">
+        <v>100</v>
+      </c>
+      <c r="L14" s="3">
         <v>-100</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O14" s="3">
         <v>200</v>
       </c>
       <c r="P14" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q14" s="3">
         <v>1600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1800</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>-1000</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1181,7 +1204,7 @@
         <v>200</v>
       </c>
       <c r="F15" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G15" s="3">
         <v>400</v>
@@ -1208,7 +1231,7 @@
         <v>400</v>
       </c>
       <c r="O15" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P15" s="3">
         <v>300</v>
@@ -1234,8 +1257,11 @@
       <c r="W15" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1256,138 +1282,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E17" s="3">
         <v>21400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>23400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>25200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>23900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>21400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>20000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>20700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>21800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>21400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>20000</v>
-      </c>
-      <c r="N17" s="3">
-        <v>20200</v>
       </c>
       <c r="O17" s="3">
         <v>20200</v>
       </c>
       <c r="P17" s="3">
+        <v>20200</v>
+      </c>
+      <c r="Q17" s="3">
         <v>22700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>18300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>20400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>15800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>16100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>13400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>14800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>15700</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E18" s="3">
         <v>2600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1300</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
       <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>-200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1411,28 +1444,29 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-200</v>
+        <v>500</v>
       </c>
       <c r="E20" s="3">
         <v>-200</v>
       </c>
       <c r="F20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-400</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-100</v>
       </c>
       <c r="J20" s="3">
         <v>-100</v>
@@ -1441,108 +1475,114 @@
         <v>-100</v>
       </c>
       <c r="L20" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="M20" s="3">
         <v>-300</v>
       </c>
       <c r="N20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O20" s="3">
         <v>-400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-600</v>
-      </c>
-      <c r="U20" s="3">
-        <v>-800</v>
       </c>
       <c r="V20" s="3">
         <v>-800</v>
       </c>
       <c r="W20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="X20" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E21" s="3">
         <v>3000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-3900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1606,73 +1646,79 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E23" s="3">
         <v>2500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-4600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1689,16 +1735,16 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
       <c r="K24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L24" s="3">
         <v>100</v>
@@ -1707,7 +1753,7 @@
         <v>100</v>
       </c>
       <c r="N24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1719,25 +1765,28 @@
         <v>0</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>-100</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>-100</v>
-      </c>
-      <c r="V24" s="3">
-        <v>100</v>
       </c>
       <c r="W24" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1801,8 +1850,11 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
@@ -1810,129 +1862,135 @@
         <v>2500</v>
       </c>
       <c r="E26" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-4500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E27" s="3">
         <v>2200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-4500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1996,8 +2054,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2061,8 +2122,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2126,8 +2190,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2191,28 +2258,31 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>200</v>
+        <v>-500</v>
       </c>
       <c r="E32" s="3">
         <v>200</v>
       </c>
       <c r="F32" s="3">
+        <v>200</v>
+      </c>
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>400</v>
-      </c>
-      <c r="I32" s="3">
-        <v>100</v>
       </c>
       <c r="J32" s="3">
         <v>100</v>
@@ -2221,108 +2291,114 @@
         <v>100</v>
       </c>
       <c r="L32" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M32" s="3">
         <v>300</v>
       </c>
       <c r="N32" s="3">
+        <v>300</v>
+      </c>
+      <c r="O32" s="3">
         <v>400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>600</v>
-      </c>
-      <c r="U32" s="3">
-        <v>800</v>
       </c>
       <c r="V32" s="3">
         <v>800</v>
       </c>
       <c r="W32" s="3">
+        <v>800</v>
+      </c>
+      <c r="X32" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E33" s="3">
         <v>2200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-4500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2386,143 +2462,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E35" s="3">
         <v>2200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-4500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2546,8 +2631,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2571,73 +2657,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E41" s="3">
         <v>36400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>11500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>11400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>12300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>13100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9400</v>
-      </c>
-      <c r="K41" s="3">
-        <v>11100</v>
       </c>
       <c r="L41" s="3">
         <v>11100</v>
       </c>
       <c r="M41" s="3">
+        <v>11100</v>
+      </c>
+      <c r="N41" s="3">
         <v>8900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>14200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>17900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>16700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>19100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>15700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>18000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>7900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>9100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2701,268 +2791,283 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E43" s="3">
         <v>17700</v>
-      </c>
-      <c r="E43" s="3">
-        <v>18900</v>
       </c>
       <c r="F43" s="3">
         <v>18900</v>
       </c>
       <c r="G43" s="3">
+        <v>18900</v>
+      </c>
+      <c r="H43" s="3">
         <v>20400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>18000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>20000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>18400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>19300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>17600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>15500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>15000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>14100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>14000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>12500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>12300</v>
-      </c>
-      <c r="S43" s="3">
-        <v>10600</v>
       </c>
       <c r="T43" s="3">
         <v>10600</v>
       </c>
       <c r="U43" s="3">
+        <v>10600</v>
+      </c>
+      <c r="V43" s="3">
         <v>8800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>9400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E44" s="3">
         <v>21900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>19300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>20300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>20400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>18700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>15900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>16100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>14000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>13600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>12500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>13600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>12000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>12800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>11600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>11100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>13400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>12500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>12600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>11600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E45" s="3">
         <v>4700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2400</v>
-      </c>
-      <c r="P45" s="3">
-        <v>1900</v>
       </c>
       <c r="Q45" s="3">
         <v>1900</v>
       </c>
       <c r="R45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="S45" s="3">
         <v>1800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>74200</v>
+      </c>
+      <c r="E46" s="3">
         <v>80700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>52800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>53400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>56300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>52800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>47200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>46200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>47100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>45200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>39200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>42200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>42700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>46500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>42600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>44200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>42300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>43000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>31100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>31700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -3026,138 +3131,147 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E48" s="3">
         <v>6800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>8600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E49" s="3">
         <v>17300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>17600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>17800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>18300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>18900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>19500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>20300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>20900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>21500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>22400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>20300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>14900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>15500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>16100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3221,8 +3335,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3286,8 +3403,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
@@ -3298,43 +3418,43 @@
         <v>1100</v>
       </c>
       <c r="F52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G52" s="3">
         <v>1200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1000</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1100</v>
       </c>
       <c r="J52" s="3">
         <v>1100</v>
       </c>
       <c r="K52" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="L52" s="3">
         <v>1200</v>
       </c>
       <c r="M52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N52" s="3">
         <v>1300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1100</v>
-      </c>
-      <c r="R52" s="3">
-        <v>700</v>
       </c>
       <c r="S52" s="3">
         <v>700</v>
@@ -3343,16 +3463,19 @@
         <v>700</v>
       </c>
       <c r="U52" s="3">
+        <v>700</v>
+      </c>
+      <c r="V52" s="3">
         <v>800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3416,73 +3539,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>98800</v>
+      </c>
+      <c r="E54" s="3">
         <v>105900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>78300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>78700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>81600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>78500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>73800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>74300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>76500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>75900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>71600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>66300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>60900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>65000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>61900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>51400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>49800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>50800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>39500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>40600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3506,8 +3635,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3531,268 +3661,281 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E57" s="3">
         <v>8600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>11000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>9500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>9200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>8500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>8800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>7200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>7000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>7600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>8500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>7400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>6000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>300</v>
+      </c>
+      <c r="E58" s="3">
         <v>10400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>23100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>21100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>24700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>23800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>18400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>15500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>16000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>14300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>12800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>14600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>14200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>16500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>15300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>10700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>10800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>9400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>8700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>8900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E59" s="3">
         <v>11100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>9700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>9300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>10200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>10800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>11500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>10800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>9200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>7100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>7400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>9400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>6000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>6700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>7600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E60" s="3">
         <v>30100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>42700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>41600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>43900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>41600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>36200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>34500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>34400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>34000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>29900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>29500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>26900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>31200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>31800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>21200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>24100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>23900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>22900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>22600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
@@ -3806,108 +3949,111 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>9800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>10600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>11400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>13800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E62" s="3">
         <v>2100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1400</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>400</v>
       </c>
       <c r="R62" s="3">
         <v>400</v>
       </c>
       <c r="S62" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="T62" s="3">
         <v>200</v>
@@ -3916,13 +4062,16 @@
         <v>200</v>
       </c>
       <c r="V62" s="3">
+        <v>200</v>
+      </c>
+      <c r="W62" s="3">
         <v>300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3986,8 +4135,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4051,8 +4203,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4116,73 +4271,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E66" s="3">
         <v>32200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>45300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>44500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>47700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>46000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>40400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>38900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>39700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>40100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>36600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>32400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>30700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>34800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>37300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>27300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>33900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>34500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>34300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>36500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>39300</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4206,8 +4367,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4271,8 +4433,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4336,8 +4501,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4401,8 +4569,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4466,73 +4637,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-407100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-409600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-412100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-410600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-409900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-410300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-407600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-405500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-403700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-404800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-405200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-404400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-405000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-404700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-402000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-399600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-395100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-394100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-392200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-391500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-390400</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4596,8 +4773,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4661,8 +4841,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4726,73 +4909,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>76200</v>
+      </c>
+      <c r="E76" s="3">
         <v>73700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>33000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>34200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>33900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>32500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>33300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>35500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>36700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>35700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>35000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>33900</v>
-      </c>
-      <c r="O76" s="3">
-        <v>30200</v>
       </c>
       <c r="P76" s="3">
         <v>30200</v>
       </c>
       <c r="Q76" s="3">
+        <v>30200</v>
+      </c>
+      <c r="R76" s="3">
         <v>24600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>24000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>15900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>16400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>5200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>4100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4856,143 +5045,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E81" s="3">
         <v>2200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-4500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5016,8 +5214,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
@@ -5028,7 +5227,7 @@
         <v>500</v>
       </c>
       <c r="F83" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="G83" s="3">
         <v>800</v>
@@ -5040,19 +5239,19 @@
         <v>800</v>
       </c>
       <c r="J83" s="3">
+        <v>800</v>
+      </c>
+      <c r="K83" s="3">
         <v>900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1000</v>
-      </c>
-      <c r="L83" s="3">
-        <v>900</v>
       </c>
       <c r="M83" s="3">
         <v>900</v>
       </c>
       <c r="N83" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="O83" s="3">
         <v>800</v>
@@ -5061,7 +5260,7 @@
         <v>800</v>
       </c>
       <c r="Q83" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="R83" s="3">
         <v>700</v>
@@ -5073,16 +5272,19 @@
         <v>700</v>
       </c>
       <c r="U83" s="3">
+        <v>700</v>
+      </c>
+      <c r="V83" s="3">
         <v>600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5146,8 +5348,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5211,8 +5416,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5276,8 +5484,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5341,8 +5552,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5406,73 +5620,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-2400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-800</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5496,28 +5716,29 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-500</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-100</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
@@ -5526,34 +5747,34 @@
         <v>-100</v>
       </c>
       <c r="L91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-200</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-100</v>
       </c>
       <c r="V91" s="3">
         <v>-100</v>
@@ -5561,8 +5782,11 @@
       <c r="W91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -5626,8 +5850,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5691,64 +5918,67 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
-        <v>-1400</v>
+        <v>0</v>
       </c>
       <c r="N94" s="3">
         <v>-1400</v>
       </c>
       <c r="O94" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="P94" s="3">
         <v>-400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-200</v>
-      </c>
-      <c r="U94" s="3">
-        <v>-100</v>
       </c>
       <c r="V94" s="3">
         <v>-100</v>
@@ -5756,8 +5986,11 @@
       <c r="W94" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -5781,8 +6014,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -5846,8 +6080,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -5911,8 +6148,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5976,8 +6216,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -6041,73 +6284,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E100" s="3">
         <v>27900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>5300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>3400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>4900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>6200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>12300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-600</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
@@ -6115,125 +6364,131 @@
         <v>-100</v>
       </c>
       <c r="E101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F101" s="3">
         <v>-300</v>
-      </c>
-      <c r="F101" s="3">
-        <v>300</v>
       </c>
       <c r="G101" s="3">
         <v>300</v>
       </c>
       <c r="H101" s="3">
+        <v>300</v>
+      </c>
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E102" s="3">
         <v>24900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>4400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>3300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>10100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INVE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INVE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
   <si>
     <t>INVE</t>
   </si>
@@ -295,6 +295,9 @@
   </si>
   <si>
     <t xml:space="preserve">Change In Cash and Cash Equivalents </t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -653,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,308 +665,333 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>25100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>28500</v>
+      </c>
+      <c r="F8" s="3">
         <v>29100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>24000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>22200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>24800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>24900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>19100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>18100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>19000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>23000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>22200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>19500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>21300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>20000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>20300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>16500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>16600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>15400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>14800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>13400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>14600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>19100</v>
+      </c>
+      <c r="F9" s="3">
         <v>18000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>15200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>14500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>16300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>15000</v>
-      </c>
-      <c r="I9" s="3">
-        <v>11400</v>
-      </c>
-      <c r="J9" s="3">
-        <v>10600</v>
       </c>
       <c r="K9" s="3">
         <v>11400</v>
       </c>
       <c r="L9" s="3">
+        <v>10600</v>
+      </c>
+      <c r="M9" s="3">
+        <v>11400</v>
+      </c>
+      <c r="N9" s="3">
         <v>12500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>12400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>10800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>11100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>11500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>12100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>10000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>11600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>9600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>9200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>7700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>8400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>9400</v>
+      </c>
+      <c r="F10" s="3">
         <v>11100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>8800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>7700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>8500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>9900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>7700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>7500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>7600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>10500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>9800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>8700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>10200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>8500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>8200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>6500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>5000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>5800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>5600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>5700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>6200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -988,67 +1016,69 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="E12" s="3">
         <v>2100</v>
       </c>
       <c r="F12" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G12" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H12" s="3">
         <v>2300</v>
-      </c>
-      <c r="G12" s="3">
-        <v>2400</v>
-      </c>
-      <c r="H12" s="3">
-        <v>2400</v>
       </c>
       <c r="I12" s="3">
         <v>2400</v>
       </c>
       <c r="J12" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="K12" s="3">
         <v>2400</v>
       </c>
       <c r="L12" s="3">
+        <v>2600</v>
+      </c>
+      <c r="M12" s="3">
+        <v>2400</v>
+      </c>
+      <c r="N12" s="3">
         <v>2100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>2100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>2000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>1900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>1900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>1800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>1700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>1600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>1600</v>
-      </c>
-      <c r="U12" s="3">
-        <v>1500</v>
-      </c>
-      <c r="V12" s="3">
-        <v>1500</v>
       </c>
       <c r="W12" s="3">
         <v>1500</v>
@@ -1056,8 +1086,14 @@
       <c r="X12" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1124,76 +1160,88 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
+        <v>100</v>
+      </c>
+      <c r="G14" s="3">
         <v>-2700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>1200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>-100</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>1600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>1800</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>-1000</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1207,10 +1255,10 @@
         <v>200</v>
       </c>
       <c r="G15" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H15" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I15" s="3">
         <v>400</v>
@@ -1234,10 +1282,10 @@
         <v>400</v>
       </c>
       <c r="P15" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q15" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="R15" s="3">
         <v>300</v>
@@ -1260,8 +1308,14 @@
       <c r="X15" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1283,144 +1337,158 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>26100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>30400</v>
+      </c>
+      <c r="F17" s="3">
         <v>27000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>21400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>23400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>25200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>23900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>21400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>20000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>20700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>21800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>21400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>20000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>20200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>20200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>22700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>18300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>20400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>15800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>16100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>13400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>14800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>15700</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F18" s="3">
         <v>2100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>2600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>1000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-2300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>1200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>1100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-2400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-1800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-3800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-1300</v>
       </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1445,144 +1513,158 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-400</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-600</v>
       </c>
       <c r="I20" s="3">
         <v>-400</v>
       </c>
       <c r="J20" s="3">
-        <v>-100</v>
+        <v>-600</v>
       </c>
       <c r="K20" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="L20" s="3">
         <v>-100</v>
       </c>
       <c r="M20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O20" s="3">
         <v>-300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F21" s="3">
         <v>3100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>3000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>1200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>2100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>1400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>1500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-1900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-1500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-3900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-1200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1649,76 +1731,88 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F23" s="3">
         <v>2600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>2500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-2700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-2000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-2700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-2300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-4600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-1100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-1900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-1000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1726,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1738,28 +1832,28 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N24" s="3">
         <v>100</v>
       </c>
       <c r="O24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
@@ -1768,25 +1862,31 @@
         <v>0</v>
       </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>-100</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
         <v>-100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1853,144 +1953,162 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F26" s="3">
         <v>2500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>2500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-2700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-2000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-2700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-2300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-4500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-1000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-1900</v>
-      </c>
-      <c r="V26" s="3">
-        <v>-700</v>
-      </c>
-      <c r="W26" s="3">
-        <v>-1100</v>
       </c>
       <c r="X26" s="3">
         <v>-700</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>-700</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F27" s="3">
         <v>2300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>2200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-3000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-2300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-2100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-2700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-2300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-4500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-1000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-1900</v>
-      </c>
-      <c r="V27" s="3">
-        <v>-700</v>
-      </c>
-      <c r="W27" s="3">
-        <v>-1100</v>
       </c>
       <c r="X27" s="3">
         <v>-700</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>-700</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2057,8 +2175,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2125,8 +2249,14 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2193,8 +2323,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2261,144 +2397,162 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
-      </c>
-      <c r="G32" s="3">
-        <v>400</v>
-      </c>
-      <c r="H32" s="3">
-        <v>600</v>
       </c>
       <c r="I32" s="3">
         <v>400</v>
       </c>
       <c r="J32" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="K32" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="L32" s="3">
         <v>100</v>
       </c>
       <c r="M32" s="3">
+        <v>100</v>
+      </c>
+      <c r="N32" s="3">
+        <v>100</v>
+      </c>
+      <c r="O32" s="3">
         <v>300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F33" s="3">
         <v>2300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>2200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-3000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-2300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-2100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-2700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-2300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-4500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-1000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-1900</v>
-      </c>
-      <c r="V33" s="3">
-        <v>-700</v>
-      </c>
-      <c r="W33" s="3">
-        <v>-1100</v>
       </c>
       <c r="X33" s="3">
         <v>-700</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>-700</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2465,149 +2619,167 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F35" s="3">
         <v>2300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>2200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-3000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-2300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-2100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-2700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-2300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-4500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-1000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-1900</v>
-      </c>
-      <c r="V35" s="3">
-        <v>-700</v>
-      </c>
-      <c r="W35" s="3">
-        <v>-1100</v>
       </c>
       <c r="X35" s="3">
         <v>-700</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>-700</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2632,8 +2804,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2658,76 +2832,84 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>27600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>28600</v>
+      </c>
+      <c r="F41" s="3">
         <v>29200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>36400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>11500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>11400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>12300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>13100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>8700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>9400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>11100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>11100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>8900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>10900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>14200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>17900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>16700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>19100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>15700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>18000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>7900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>9100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2794,280 +2976,310 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F43" s="3">
         <v>19300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>17700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>18900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>18900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>20400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>18000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>20000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>18400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>19300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>17600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>15500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>15000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>14100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>14000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>12500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>12300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>10600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>10600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>8800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>9400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E44" s="3">
+        <v>19900</v>
+      </c>
+      <c r="F44" s="3">
         <v>21600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>21900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>19300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>20300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>20400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>18700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>15900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>16100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>14000</v>
-      </c>
-      <c r="M44" s="3">
-        <v>13600</v>
-      </c>
-      <c r="N44" s="3">
-        <v>12500</v>
       </c>
       <c r="O44" s="3">
         <v>13600</v>
       </c>
       <c r="P44" s="3">
+        <v>12500</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>13600</v>
+      </c>
+      <c r="R44" s="3">
         <v>12000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>12800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>11600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>11100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>13400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>12500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>12600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>11600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F45" s="3">
         <v>4100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>4700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>3100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>2800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>3200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>3000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>2500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>2300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>2800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>2900</v>
-      </c>
-      <c r="N45" s="3">
-        <v>2400</v>
-      </c>
-      <c r="O45" s="3">
-        <v>2700</v>
       </c>
       <c r="P45" s="3">
         <v>2400</v>
       </c>
       <c r="Q45" s="3">
+        <v>2700</v>
+      </c>
+      <c r="R45" s="3">
+        <v>2400</v>
+      </c>
+      <c r="S45" s="3">
         <v>1900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>1900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>1800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>2500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>1900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>1800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>1500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>71300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>72700</v>
+      </c>
+      <c r="F46" s="3">
         <v>74200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>80700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>52800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>53400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>56300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>52800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>47200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>46200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>47100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>45200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>39200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>42200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>42700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>46500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>42600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>44200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>42300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>43000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>31100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>31700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -3134,144 +3346,162 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F48" s="3">
         <v>6500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>6800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>6700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>6200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>5900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>5800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>6100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>6700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>7300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>8000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>8600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>2100</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>2000</v>
-      </c>
-      <c r="R48" s="3">
-        <v>2200</v>
       </c>
       <c r="S48" s="3">
         <v>2000</v>
       </c>
       <c r="T48" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="U48" s="3">
         <v>2000</v>
       </c>
       <c r="V48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="W48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="X48" s="3">
         <v>2200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>2400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>16700</v>
+      </c>
+      <c r="F49" s="3">
         <v>17000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>17300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>17600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>17800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>18300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>18900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>19500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>20300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>20900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>21500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>22400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>20300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>14900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>15500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>16100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>4400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>4700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>5100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>5500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>5800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3338,8 +3568,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3406,13 +3642,19 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E52" s="3">
         <v>1100</v>
@@ -3421,61 +3663,67 @@
         <v>1100</v>
       </c>
       <c r="G52" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="H52" s="3">
         <v>1100</v>
       </c>
       <c r="I52" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="J52" s="3">
         <v>1100</v>
       </c>
       <c r="K52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L52" s="3">
         <v>1100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N52" s="3">
         <v>1200</v>
-      </c>
-      <c r="M52" s="3">
-        <v>1200</v>
-      </c>
-      <c r="N52" s="3">
-        <v>1300</v>
       </c>
       <c r="O52" s="3">
         <v>1200</v>
       </c>
       <c r="P52" s="3">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="Q52" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="R52" s="3">
         <v>1100</v>
       </c>
       <c r="S52" s="3">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T52" s="3">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="U52" s="3">
         <v>700</v>
       </c>
       <c r="V52" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="W52" s="3">
         <v>700</v>
       </c>
       <c r="X52" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z52" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3542,76 +3790,88 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>94900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>96700</v>
+      </c>
+      <c r="F54" s="3">
         <v>98800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>105900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>78300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>78700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>81600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>78500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>73800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>74300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>76500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>75900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>71600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>66300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>60900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>65000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>61900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>51400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>49800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>50800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>39500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>40600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3636,8 +3896,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3662,280 +3924,306 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F57" s="3">
         <v>9300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>8600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>10200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>11000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>9500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>9200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>8500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>8800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>7600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>8200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>6300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>5700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>5600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>7200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>7000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>5900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>7600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>8500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>7400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>6000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>10400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>23100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>21100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>24700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>23800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>18400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>15500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>16000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>14300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>12800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>14600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>14200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>16500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>15300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>10700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>10800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>9400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>8700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>8900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>10300</v>
+      </c>
+      <c r="F59" s="3">
         <v>11300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>11100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>9400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>9500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>9700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>8600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>9300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>10200</v>
-      </c>
-      <c r="L59" s="3">
-        <v>10800</v>
-      </c>
-      <c r="M59" s="3">
-        <v>11500</v>
       </c>
       <c r="N59" s="3">
         <v>10800</v>
       </c>
       <c r="O59" s="3">
+        <v>11500</v>
+      </c>
+      <c r="P59" s="3">
+        <v>10800</v>
+      </c>
+      <c r="Q59" s="3">
         <v>9200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>7100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>7400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>9400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>4600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>5800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>6000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>6700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>7600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E60" s="3">
         <v>20800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
+        <v>20800</v>
+      </c>
+      <c r="G60" s="3">
         <v>30100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>42700</v>
-      </c>
-      <c r="G60" s="3">
-        <v>41600</v>
-      </c>
-      <c r="H60" s="3">
-        <v>43900</v>
       </c>
       <c r="I60" s="3">
         <v>41600</v>
       </c>
       <c r="J60" s="3">
+        <v>43900</v>
+      </c>
+      <c r="K60" s="3">
+        <v>41600</v>
+      </c>
+      <c r="L60" s="3">
         <v>36200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>34500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>34400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>34000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>29900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>29500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>26900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>31200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>31800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>21200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>24100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>23900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>22900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>22600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
@@ -3952,126 +4240,138 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>2200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>2400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>5400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>5900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>9800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>10600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>11400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>13800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F62" s="3">
         <v>1700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>2100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>2600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2900</v>
-      </c>
-      <c r="H62" s="3">
-        <v>3500</v>
-      </c>
-      <c r="I62" s="3">
-        <v>3900</v>
       </c>
       <c r="J62" s="3">
         <v>3500</v>
       </c>
       <c r="K62" s="3">
+        <v>3900</v>
+      </c>
+      <c r="L62" s="3">
+        <v>3500</v>
+      </c>
+      <c r="M62" s="3">
         <v>4000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>4500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>5000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>5300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>1400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>400</v>
-      </c>
-      <c r="T62" s="3">
-        <v>200</v>
-      </c>
-      <c r="U62" s="3">
-        <v>200</v>
       </c>
       <c r="V62" s="3">
         <v>200</v>
       </c>
       <c r="W62" s="3">
+        <v>200</v>
+      </c>
+      <c r="X62" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y62" s="3">
         <v>300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4138,8 +4438,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4206,8 +4512,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4274,76 +4586,88 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>22200</v>
+      </c>
+      <c r="F66" s="3">
         <v>22600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>32200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>45300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>44500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>47700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>46000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>40400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>38900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>39700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>40100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>36600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>32400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>30700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>34800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>37300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>27300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>33900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>34500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>34300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>36500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>39300</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4368,8 +4692,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4436,8 +4762,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4504,8 +4836,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4572,8 +4910,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4640,76 +4984,88 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-410000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-409000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-407100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-409600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-412100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-410600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-409900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-410300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-407600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-405500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-403700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-404800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-405200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-404400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-405000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-404700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-402000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-399600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-395100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-394100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-392200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-391500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-390400</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4776,8 +5132,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4844,8 +5206,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4912,76 +5280,88 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>73800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>74500</v>
+      </c>
+      <c r="F76" s="3">
         <v>76200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>73700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>33000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>34200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>33900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>32500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>33300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>35500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>36700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>35700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>35000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>33900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>30200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>30200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>24600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>24000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>15900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>16400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>5200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>4100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5048,149 +5428,167 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F81" s="3">
         <v>2300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>2200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-3000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-2300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-2100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-2700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-2300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-4500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-1000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-1900</v>
-      </c>
-      <c r="V81" s="3">
-        <v>-700</v>
-      </c>
-      <c r="W81" s="3">
-        <v>-1100</v>
       </c>
       <c r="X81" s="3">
         <v>-700</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Z81" s="3">
+        <v>-700</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5215,8 +5613,10 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
@@ -5230,10 +5630,10 @@
         <v>500</v>
       </c>
       <c r="G83" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="H83" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="I83" s="3">
         <v>800</v>
@@ -5242,31 +5642,31 @@
         <v>800</v>
       </c>
       <c r="K83" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L83" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M83" s="3">
         <v>900</v>
       </c>
       <c r="N83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O83" s="3">
         <v>900</v>
       </c>
-      <c r="O83" s="3">
-        <v>800</v>
-      </c>
       <c r="P83" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="Q83" s="3">
         <v>800</v>
       </c>
       <c r="R83" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="S83" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T83" s="3">
         <v>700</v>
@@ -5275,16 +5675,22 @@
         <v>700</v>
       </c>
       <c r="V83" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="W83" s="3">
         <v>700</v>
       </c>
       <c r="X83" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z83" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5351,8 +5757,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5419,8 +5831,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5487,8 +5905,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5555,8 +5979,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5623,76 +6053,88 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F89" s="3">
         <v>2900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-2500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>3600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-1100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-3700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>1500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-2200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-3000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-2600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-2400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-1900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-800</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5717,76 +6159,84 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-1100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-500</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-100</v>
       </c>
       <c r="L91" s="3">
         <v>-100</v>
       </c>
       <c r="M91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N91" s="3">
         <v>-100</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-200</v>
-      </c>
-      <c r="V91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="W91" s="3">
-        <v>-100</v>
       </c>
       <c r="X91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -5853,8 +6303,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5921,34 +6377,40 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F94" s="3">
         <v>400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-1100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-500</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
       </c>
       <c r="L94" s="3">
         <v>-100</v>
@@ -5957,40 +6419,46 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-1400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-1400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-1500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-200</v>
-      </c>
-      <c r="V94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="W94" s="3">
-        <v>-100</v>
       </c>
       <c r="X94" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6015,8 +6483,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -6083,8 +6553,14 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -6151,8 +6627,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -6219,8 +6701,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -6287,99 +6775,111 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F100" s="3">
         <v>-10300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>27900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>2000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-4100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>5300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>3400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>1200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-2000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>4900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-1500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>6200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>12300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-600</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>300</v>
-      </c>
-      <c r="I101" s="3">
-        <v>100</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-300</v>
       </c>
       <c r="K101" s="3">
         <v>100</v>
@@ -6391,104 +6891,116 @@
         <v>100</v>
       </c>
       <c r="N101" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="O101" s="3">
         <v>100</v>
       </c>
       <c r="P101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>100</v>
+      </c>
+      <c r="R101" s="3">
         <v>-200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>600</v>
+      </c>
+      <c r="F102" s="3">
         <v>-7200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>24900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>4400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-1700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>2200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-1900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-3400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>1200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-2400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>3300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-2200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>10100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-1200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INVE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INVE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
   <si>
     <t>INVE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E8" s="3">
         <v>25100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>28500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>29100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>24000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>22200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>24800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>24900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>19100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>18100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>19000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>23000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>22200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>19500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>21300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>20000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>20300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>16500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>16600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>15400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>14800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>13400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>14600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E9" s="3">
         <v>16100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>19100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>18000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>15200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>14500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>16300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>15000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>11400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>11400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>12500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>12400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>10800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>11100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>11500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>12100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>10000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>11600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>9600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>9200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>7700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>8400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E10" s="3">
         <v>9000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>9400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>11100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>8800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>7700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>8500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>9900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>10500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>9800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>8700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>10200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>8500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>8200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>6500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>5000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>5800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>5600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>5700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>6200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1027,7 +1041,7 @@
         <v>2500</v>
       </c>
       <c r="E12" s="3">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="F12" s="3">
         <v>2100</v>
@@ -1036,10 +1050,10 @@
         <v>2100</v>
       </c>
       <c r="H12" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I12" s="3">
         <v>2300</v>
-      </c>
-      <c r="I12" s="3">
-        <v>2400</v>
       </c>
       <c r="J12" s="3">
         <v>2400</v>
@@ -1048,40 +1062,40 @@
         <v>2400</v>
       </c>
       <c r="L12" s="3">
+        <v>2400</v>
+      </c>
+      <c r="M12" s="3">
         <v>2600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2400</v>
-      </c>
-      <c r="N12" s="3">
-        <v>2100</v>
       </c>
       <c r="O12" s="3">
         <v>2100</v>
       </c>
       <c r="P12" s="3">
+        <v>2100</v>
+      </c>
+      <c r="Q12" s="3">
         <v>2000</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>1900</v>
       </c>
       <c r="R12" s="3">
         <v>1900</v>
       </c>
       <c r="S12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="T12" s="3">
         <v>1800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1700</v>
-      </c>
-      <c r="U12" s="3">
-        <v>1600</v>
       </c>
       <c r="V12" s="3">
         <v>1600</v>
       </c>
       <c r="W12" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="X12" s="3">
         <v>1500</v>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1166,82 +1183,88 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>200</v>
+      </c>
+      <c r="E14" s="3">
         <v>-100</v>
-      </c>
-      <c r="E14" s="3">
-        <v>100</v>
       </c>
       <c r="F14" s="3">
         <v>100</v>
       </c>
       <c r="G14" s="3">
+        <v>100</v>
+      </c>
+      <c r="H14" s="3">
         <v>-2700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1200</v>
-      </c>
-      <c r="L14" s="3">
-        <v>100</v>
       </c>
       <c r="M14" s="3">
         <v>100</v>
       </c>
       <c r="N14" s="3">
+        <v>100</v>
+      </c>
+      <c r="O14" s="3">
         <v>-100</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
       <c r="Q14" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R14" s="3">
         <v>200</v>
       </c>
       <c r="S14" s="3">
+        <v>200</v>
+      </c>
+      <c r="T14" s="3">
         <v>1600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1800</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1261,7 +1284,7 @@
         <v>200</v>
       </c>
       <c r="I15" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="J15" s="3">
         <v>400</v>
@@ -1288,7 +1311,7 @@
         <v>400</v>
       </c>
       <c r="R15" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="S15" s="3">
         <v>300</v>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E17" s="3">
         <v>26100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>30400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>27000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>21400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>23400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>25200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>23900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>21400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>20000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>20700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>21800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>21400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>20000</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>20200</v>
       </c>
       <c r="R17" s="3">
         <v>20200</v>
       </c>
       <c r="S17" s="3">
+        <v>20200</v>
+      </c>
+      <c r="T17" s="3">
         <v>22700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>18300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>20400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>15800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>16100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>13400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>14800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>15700</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-3800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1300</v>
       </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
       <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1515,8 +1548,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1524,28 +1558,28 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>500</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-200</v>
       </c>
       <c r="H20" s="3">
         <v>-200</v>
       </c>
       <c r="I20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-400</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-100</v>
       </c>
       <c r="M20" s="3">
         <v>-100</v>
@@ -1554,117 +1588,123 @@
         <v>-100</v>
       </c>
       <c r="O20" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="P20" s="3">
         <v>-300</v>
       </c>
       <c r="Q20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R20" s="3">
         <v>-400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-600</v>
-      </c>
-      <c r="X20" s="3">
-        <v>-800</v>
       </c>
       <c r="Y20" s="3">
         <v>-800</v>
       </c>
       <c r="Z20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-3900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-1200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1737,94 +1777,100 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-4600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1838,16 +1884,16 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
       <c r="N24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O24" s="3">
         <v>100</v>
@@ -1856,7 +1902,7 @@
         <v>100</v>
       </c>
       <c r="Q24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
@@ -1868,25 +1914,28 @@
         <v>0</v>
       </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>-100</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
       <c r="W24" s="3">
         <v>0</v>
       </c>
       <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
         <v>-100</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>100</v>
       </c>
       <c r="Z24" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1900</v>
-      </c>
-      <c r="F26" s="3">
-        <v>2500</v>
       </c>
       <c r="G26" s="3">
         <v>2500</v>
       </c>
       <c r="H26" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I26" s="3">
         <v>-1500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-4500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-4500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2403,8 +2470,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -2412,28 +2482,28 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-500</v>
-      </c>
-      <c r="G32" s="3">
-        <v>200</v>
       </c>
       <c r="H32" s="3">
         <v>200</v>
       </c>
       <c r="I32" s="3">
+        <v>200</v>
+      </c>
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>400</v>
-      </c>
-      <c r="L32" s="3">
-        <v>100</v>
       </c>
       <c r="M32" s="3">
         <v>100</v>
@@ -2442,117 +2512,123 @@
         <v>100</v>
       </c>
       <c r="O32" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="P32" s="3">
         <v>300</v>
       </c>
       <c r="Q32" s="3">
+        <v>300</v>
+      </c>
+      <c r="R32" s="3">
         <v>400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>600</v>
-      </c>
-      <c r="X32" s="3">
-        <v>800</v>
       </c>
       <c r="Y32" s="3">
         <v>800</v>
       </c>
       <c r="Z32" s="3">
+        <v>800</v>
+      </c>
+      <c r="AA32" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-4500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-4500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2834,82 +2920,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E41" s="3">
         <v>27600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>28600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>29200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>36400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>11500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>11400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>12300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9400</v>
-      </c>
-      <c r="N41" s="3">
-        <v>11100</v>
       </c>
       <c r="O41" s="3">
         <v>11100</v>
       </c>
       <c r="P41" s="3">
+        <v>11100</v>
+      </c>
+      <c r="Q41" s="3">
         <v>8900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>10900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>14200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>17900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>16700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>19100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>15700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>18000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>7900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>9100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2982,304 +3072,319 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E43" s="3">
         <v>19500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>20000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>19300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>17700</v>
-      </c>
-      <c r="H43" s="3">
-        <v>18900</v>
       </c>
       <c r="I43" s="3">
         <v>18900</v>
       </c>
       <c r="J43" s="3">
+        <v>18900</v>
+      </c>
+      <c r="K43" s="3">
         <v>20400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>18000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>20000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>18400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>19300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>17600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>15500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>15000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>14100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>14000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>12500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>12300</v>
-      </c>
-      <c r="V43" s="3">
-        <v>10600</v>
       </c>
       <c r="W43" s="3">
         <v>10600</v>
       </c>
       <c r="X43" s="3">
+        <v>10600</v>
+      </c>
+      <c r="Y43" s="3">
         <v>8800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>9400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E44" s="3">
         <v>20500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>19900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>21600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>21900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>19300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>20300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>20400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>18700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>15900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>16100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>14000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>13600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>12500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>13600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>12000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>12800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>11600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>11100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>13400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>12500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>12600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>11600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E45" s="3">
         <v>3700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2400</v>
-      </c>
-      <c r="S45" s="3">
-        <v>1900</v>
       </c>
       <c r="T45" s="3">
         <v>1900</v>
       </c>
       <c r="U45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="V45" s="3">
         <v>1800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>72600</v>
+      </c>
+      <c r="E46" s="3">
         <v>71300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>72700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>74200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>80700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>52800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>53400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>56300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>52800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>47200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>46200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>47100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>45200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>39200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>42200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>42700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>46500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>42600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>44200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>42300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>43000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>31100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>31700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -3352,156 +3457,165 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E48" s="3">
         <v>6100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>8000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>8600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E49" s="3">
         <v>16500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>16700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>17000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>17300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>17600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>17800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>18300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>18900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>19500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>20300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>20900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>21500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>22400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>20300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>14900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>15500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>16100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>5800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3648,16 +3765,19 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E52" s="3">
         <v>1000</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1100</v>
       </c>
       <c r="F52" s="3">
         <v>1100</v>
@@ -3669,43 +3789,43 @@
         <v>1100</v>
       </c>
       <c r="I52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J52" s="3">
         <v>1200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1000</v>
-      </c>
-      <c r="L52" s="3">
-        <v>1100</v>
       </c>
       <c r="M52" s="3">
         <v>1100</v>
       </c>
       <c r="N52" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="O52" s="3">
         <v>1200</v>
       </c>
       <c r="P52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q52" s="3">
         <v>1300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1100</v>
-      </c>
-      <c r="U52" s="3">
-        <v>700</v>
       </c>
       <c r="V52" s="3">
         <v>700</v>
@@ -3714,16 +3834,19 @@
         <v>700</v>
       </c>
       <c r="X52" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y52" s="3">
         <v>800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>96400</v>
+      </c>
+      <c r="E54" s="3">
         <v>94900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>96700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>98800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>105900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>78300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>78700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>81600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>78500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>73800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>74300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>76500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>75900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>71600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>66300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>60900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>65000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>61900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>51400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>49800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>50800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>39500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>40600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3926,304 +4056,317 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E57" s="3">
         <v>11300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>9300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>10200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>11000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>9500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>7600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>8200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>6300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>7200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>7000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>5900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>7600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>8500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>7400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>6000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>10400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>23100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>21100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>24700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>23800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>18400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>15500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>16000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>14300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>12800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>14600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>14200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>16500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>15300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>10700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>10800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>9400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>8700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>8900</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E59" s="3">
         <v>8600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>10300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>11300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>11100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>9400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>9500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>9700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>10200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>10800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>11500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>10800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>9200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>7100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>7400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>9400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>5800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>6000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>6700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>7600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E60" s="3">
         <v>20000</v>
-      </c>
-      <c r="E60" s="3">
-        <v>20800</v>
       </c>
       <c r="F60" s="3">
         <v>20800</v>
       </c>
       <c r="G60" s="3">
+        <v>20800</v>
+      </c>
+      <c r="H60" s="3">
         <v>30100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>42700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>41600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>43900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>41600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>36200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>34500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>34400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>34000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>29900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>29500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>26900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>31200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>31800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>21200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>24100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>23900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>22900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>22600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
@@ -4246,58 +4389,61 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>9800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>10600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>11400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>13800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
@@ -4305,58 +4451,58 @@
         <v>1100</v>
       </c>
       <c r="E62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F62" s="3">
         <v>1300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>5300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1400</v>
-      </c>
-      <c r="T62" s="3">
-        <v>400</v>
       </c>
       <c r="U62" s="3">
         <v>400</v>
       </c>
       <c r="V62" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="W62" s="3">
         <v>200</v>
@@ -4365,13 +4511,16 @@
         <v>200</v>
       </c>
       <c r="Y62" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z62" s="3">
         <v>300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E66" s="3">
         <v>21100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>22200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>22600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>32200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>45300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>44500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>47700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>46000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>40400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>38900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>39700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>40100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>36600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>32400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>30700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>34800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>37300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>27300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>33900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>34500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>34300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>36500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>39300</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-410200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-410000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-409000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-407100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-409600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-412100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-410600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-409900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-410300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-407600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-405500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-403700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-404800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-405200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-404400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-405000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-404700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-402000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-399600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-395100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-394100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-392200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-391500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-390400</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>73500</v>
+      </c>
+      <c r="E76" s="3">
         <v>73800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>74500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>76200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>73700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>33000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>34200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>33900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>32500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>33300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>35500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>36700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>35700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>35000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>33900</v>
-      </c>
-      <c r="R76" s="3">
-        <v>30200</v>
       </c>
       <c r="S76" s="3">
         <v>30200</v>
       </c>
       <c r="T76" s="3">
+        <v>30200</v>
+      </c>
+      <c r="U76" s="3">
         <v>24600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>24000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>15900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>16400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>5200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>4100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-4500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5615,13 +5813,14 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E83" s="3">
         <v>500</v>
@@ -5636,7 +5835,7 @@
         <v>500</v>
       </c>
       <c r="I83" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="J83" s="3">
         <v>800</v>
@@ -5648,19 +5847,19 @@
         <v>800</v>
       </c>
       <c r="M83" s="3">
+        <v>800</v>
+      </c>
+      <c r="N83" s="3">
         <v>900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1000</v>
-      </c>
-      <c r="O83" s="3">
-        <v>900</v>
       </c>
       <c r="P83" s="3">
         <v>900</v>
       </c>
       <c r="Q83" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="R83" s="3">
         <v>800</v>
@@ -5669,7 +5868,7 @@
         <v>800</v>
       </c>
       <c r="T83" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="U83" s="3">
         <v>700</v>
@@ -5681,16 +5880,19 @@
         <v>700</v>
       </c>
       <c r="X83" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y83" s="3">
         <v>600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>1200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-3000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-2600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-2400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-1900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-800</v>
       </c>
-      <c r="Y89" s="3">
-        <v>0</v>
-      </c>
       <c r="Z89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -6161,37 +6381,38 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-500</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-100</v>
       </c>
       <c r="M91" s="3">
         <v>-100</v>
@@ -6200,34 +6421,34 @@
         <v>-100</v>
       </c>
       <c r="O91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-200</v>
-      </c>
-      <c r="X91" s="3">
-        <v>-100</v>
       </c>
       <c r="Y91" s="3">
         <v>-100</v>
@@ -6235,8 +6456,11 @@
       <c r="Z91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -6383,73 +6610,76 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
-        <v>-1400</v>
+        <v>0</v>
       </c>
       <c r="Q94" s="3">
         <v>-1400</v>
       </c>
       <c r="R94" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="S94" s="3">
         <v>-400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-200</v>
-      </c>
-      <c r="X94" s="3">
-        <v>-100</v>
       </c>
       <c r="Y94" s="3">
         <v>-100</v>
@@ -6457,8 +6687,11 @@
       <c r="Z94" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -6781,226 +7024,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-10300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>27900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>5300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>4900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>6200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>12300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-600</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
       <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-300</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-100</v>
       </c>
       <c r="G101" s="3">
         <v>-100</v>
       </c>
       <c r="H101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I101" s="3">
         <v>-300</v>
-      </c>
-      <c r="I101" s="3">
-        <v>300</v>
       </c>
       <c r="J101" s="3">
         <v>300</v>
       </c>
       <c r="K101" s="3">
+        <v>300</v>
+      </c>
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>200</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>100</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-7200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>24900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>3300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-2200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>10100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INVE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INVE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
   <si>
     <t>INVE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E8" s="3">
         <v>27900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>25100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>28500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>29100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>24000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>22200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>24800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>24900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>19100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>18100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>19000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>23000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>22200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>19500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>21300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>20000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>20300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>16500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>16600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>15400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>14800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>13400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>14600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>19800</v>
+      </c>
+      <c r="E9" s="3">
         <v>17600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>16100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>19100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>18000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>15200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>14500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>16300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>15000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>11400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>10600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>11400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>12500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>12400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>10800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>11100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>11500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>12100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>10000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>11600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>9600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>9200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>7700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>8400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E10" s="3">
         <v>10300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>9000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>9400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>11100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>8800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>7700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>8500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>10500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>9800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>8700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>10200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>8500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>8200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>6500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>5000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>5800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>5600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>5700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>6200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,19 +1045,20 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="E12" s="3">
         <v>2500</v>
       </c>
       <c r="F12" s="3">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="G12" s="3">
         <v>2100</v>
@@ -1053,10 +1067,10 @@
         <v>2100</v>
       </c>
       <c r="I12" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J12" s="3">
         <v>2300</v>
-      </c>
-      <c r="J12" s="3">
-        <v>2400</v>
       </c>
       <c r="K12" s="3">
         <v>2400</v>
@@ -1065,40 +1079,40 @@
         <v>2400</v>
       </c>
       <c r="M12" s="3">
+        <v>2400</v>
+      </c>
+      <c r="N12" s="3">
         <v>2600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2400</v>
-      </c>
-      <c r="O12" s="3">
-        <v>2100</v>
       </c>
       <c r="P12" s="3">
         <v>2100</v>
       </c>
       <c r="Q12" s="3">
+        <v>2100</v>
+      </c>
+      <c r="R12" s="3">
         <v>2000</v>
-      </c>
-      <c r="R12" s="3">
-        <v>1900</v>
       </c>
       <c r="S12" s="3">
         <v>1900</v>
       </c>
       <c r="T12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="U12" s="3">
         <v>1800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1700</v>
-      </c>
-      <c r="V12" s="3">
-        <v>1600</v>
       </c>
       <c r="W12" s="3">
         <v>1600</v>
       </c>
       <c r="X12" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="Y12" s="3">
         <v>1500</v>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1186,85 +1203,91 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-100</v>
-      </c>
-      <c r="F14" s="3">
-        <v>100</v>
       </c>
       <c r="G14" s="3">
         <v>100</v>
       </c>
       <c r="H14" s="3">
+        <v>100</v>
+      </c>
+      <c r="I14" s="3">
         <v>-2700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1200</v>
-      </c>
-      <c r="M14" s="3">
-        <v>100</v>
       </c>
       <c r="N14" s="3">
         <v>100</v>
       </c>
       <c r="O14" s="3">
+        <v>100</v>
+      </c>
+      <c r="P14" s="3">
         <v>-100</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
       <c r="R14" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S14" s="3">
         <v>200</v>
       </c>
       <c r="T14" s="3">
+        <v>200</v>
+      </c>
+      <c r="U14" s="3">
         <v>1600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>1800</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
       <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1287,7 +1310,7 @@
         <v>200</v>
       </c>
       <c r="J15" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K15" s="3">
         <v>400</v>
@@ -1314,7 +1337,7 @@
         <v>400</v>
       </c>
       <c r="S15" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T15" s="3">
         <v>300</v>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>30400</v>
+      </c>
+      <c r="E17" s="3">
         <v>28100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>26100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>30400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>27000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>21400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>23400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>25200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>23900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>21400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>20000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>20700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>21800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>21400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>20000</v>
-      </c>
-      <c r="R17" s="3">
-        <v>20200</v>
       </c>
       <c r="S17" s="3">
         <v>20200</v>
       </c>
       <c r="T17" s="3">
+        <v>20200</v>
+      </c>
+      <c r="U17" s="3">
         <v>22700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>18300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>20400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>15800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>16100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>13400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>14800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>15700</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-3800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y18" s="3">
-        <v>0</v>
-      </c>
       <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1561,28 +1595,28 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>500</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-200</v>
       </c>
       <c r="I20" s="3">
         <v>-200</v>
       </c>
       <c r="J20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-400</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-100</v>
       </c>
       <c r="N20" s="3">
         <v>-100</v>
@@ -1591,120 +1625,126 @@
         <v>-100</v>
       </c>
       <c r="P20" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="Q20" s="3">
         <v>-300</v>
       </c>
       <c r="R20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S20" s="3">
         <v>-400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-600</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>-800</v>
       </c>
       <c r="Z20" s="3">
         <v>-800</v>
       </c>
       <c r="AA20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="AB20" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E21" s="3">
         <v>400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-3900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1780,100 +1820,106 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-4600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1887,16 +1933,16 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
       <c r="O24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P24" s="3">
         <v>100</v>
@@ -1905,7 +1951,7 @@
         <v>100</v>
       </c>
       <c r="R24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
@@ -1917,25 +1963,28 @@
         <v>0</v>
       </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>-100</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
       <c r="X24" s="3">
         <v>0</v>
       </c>
       <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
         <v>-100</v>
-      </c>
-      <c r="Z24" s="3">
-        <v>100</v>
       </c>
       <c r="AA24" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1900</v>
-      </c>
-      <c r="G26" s="3">
-        <v>2500</v>
       </c>
       <c r="H26" s="3">
         <v>2500</v>
       </c>
       <c r="I26" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J26" s="3">
         <v>-1500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-4500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-4500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -2485,28 +2555,28 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-500</v>
-      </c>
-      <c r="H32" s="3">
-        <v>200</v>
       </c>
       <c r="I32" s="3">
         <v>200</v>
       </c>
       <c r="J32" s="3">
+        <v>200</v>
+      </c>
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>400</v>
-      </c>
-      <c r="M32" s="3">
-        <v>100</v>
       </c>
       <c r="N32" s="3">
         <v>100</v>
@@ -2515,120 +2585,126 @@
         <v>100</v>
       </c>
       <c r="P32" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="Q32" s="3">
         <v>300</v>
       </c>
       <c r="R32" s="3">
+        <v>300</v>
+      </c>
+      <c r="S32" s="3">
         <v>400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>600</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>800</v>
       </c>
       <c r="Z32" s="3">
         <v>800</v>
       </c>
       <c r="AA32" s="3">
+        <v>800</v>
+      </c>
+      <c r="AB32" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-4500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-4500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2921,85 +3007,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E41" s="3">
         <v>25000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>27600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>28600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>29200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>36400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>11500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>11400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>12300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>13100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9400</v>
-      </c>
-      <c r="O41" s="3">
-        <v>11100</v>
       </c>
       <c r="P41" s="3">
         <v>11100</v>
       </c>
       <c r="Q41" s="3">
+        <v>11100</v>
+      </c>
+      <c r="R41" s="3">
         <v>8900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>10900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>14200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>17900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>16700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>19100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>15700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>18000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>7900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>9100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -3075,316 +3165,331 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E43" s="3">
         <v>21000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>19500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>20000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>19300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>17700</v>
-      </c>
-      <c r="I43" s="3">
-        <v>18900</v>
       </c>
       <c r="J43" s="3">
         <v>18900</v>
       </c>
       <c r="K43" s="3">
+        <v>18900</v>
+      </c>
+      <c r="L43" s="3">
         <v>20400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>18000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>20000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>18400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>19300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>17600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>15500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>15000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>14100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>14000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>12500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>12300</v>
-      </c>
-      <c r="W43" s="3">
-        <v>10600</v>
       </c>
       <c r="X43" s="3">
         <v>10600</v>
       </c>
       <c r="Y43" s="3">
+        <v>10600</v>
+      </c>
+      <c r="Z43" s="3">
         <v>8800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>9400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>25100</v>
+      </c>
+      <c r="E44" s="3">
         <v>22200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>20500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>19900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>21600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>21900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>19300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>20300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>20400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>18700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>15900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>16100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>14000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>13600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>12500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>13600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>12000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>12800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>11600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>11100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>13400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>12500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>12600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>11600</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E45" s="3">
         <v>4400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2400</v>
-      </c>
-      <c r="T45" s="3">
-        <v>1900</v>
       </c>
       <c r="U45" s="3">
         <v>1900</v>
       </c>
       <c r="V45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="W45" s="3">
         <v>1800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>74500</v>
+      </c>
+      <c r="E46" s="3">
         <v>72600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>71300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>72700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>74200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>80700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>52800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>53400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>56300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>52800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>47200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>46200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>47100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>45200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>39200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>42200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>42700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>46500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>42600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>44200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>42300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>43000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>31100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>31700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -3460,162 +3565,171 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E48" s="3">
         <v>6700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>8000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>8600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>2400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E49" s="3">
         <v>16100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>16500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>16700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>17000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>17300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>17600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>17800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>18300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>18900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>19500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>20300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>20900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>21500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>22400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>20300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>14900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>15500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>16100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>4700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>5500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>5800</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3768,19 +3885,22 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1000</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1100</v>
       </c>
       <c r="G52" s="3">
         <v>1100</v>
@@ -3792,43 +3912,43 @@
         <v>1100</v>
       </c>
       <c r="J52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K52" s="3">
         <v>1200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1000</v>
-      </c>
-      <c r="M52" s="3">
-        <v>1100</v>
       </c>
       <c r="N52" s="3">
         <v>1100</v>
       </c>
       <c r="O52" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="P52" s="3">
         <v>1200</v>
       </c>
       <c r="Q52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R52" s="3">
         <v>1300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1100</v>
-      </c>
-      <c r="V52" s="3">
-        <v>700</v>
       </c>
       <c r="W52" s="3">
         <v>700</v>
@@ -3837,16 +3957,19 @@
         <v>700</v>
       </c>
       <c r="Y52" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z52" s="3">
         <v>800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>101400</v>
+      </c>
+      <c r="E54" s="3">
         <v>96400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>94900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>96700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>98800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>105900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>78300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>78700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>81600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>78500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>73800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>74300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>76500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>75900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>71600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>66300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>60900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>65000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>61900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>51400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>49800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>50800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>39500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>40600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4057,85 +4187,89 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E57" s="3">
         <v>13800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>11300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>10500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>9300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>10200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>11000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>8800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>7600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>8200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>6300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>5600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>7200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>7000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>5900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>7600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>8500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>7400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>6000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
@@ -4145,228 +4279,237 @@
       <c r="E58" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>10400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>23100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>21100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>24700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>23800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>18400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>15500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>16000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>14300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>12800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>14600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>14200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>16500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>15300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>10700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>10800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>9400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>8700</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>8900</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E59" s="3">
         <v>8000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>10300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>11300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>11100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>9400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>9500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>9300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>10200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>10800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>11500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>10800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>9200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>7100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>7400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>9400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>5800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>6000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>6700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>7600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E60" s="3">
         <v>21800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>20000</v>
-      </c>
-      <c r="F60" s="3">
-        <v>20800</v>
       </c>
       <c r="G60" s="3">
         <v>20800</v>
       </c>
       <c r="H60" s="3">
+        <v>20800</v>
+      </c>
+      <c r="I60" s="3">
         <v>30100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>42700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>41600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>43900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>41600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>36200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>34500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>34400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>34000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>29900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>29500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>26900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>31200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>31800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>21200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>24100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>23900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>22900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>22600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
@@ -4392,120 +4535,123 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>9800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>10600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>11400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>13800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>1100</v>
+        <v>3700</v>
       </c>
       <c r="E62" s="3">
         <v>1100</v>
       </c>
       <c r="F62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G62" s="3">
         <v>1300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>5000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1400</v>
-      </c>
-      <c r="U62" s="3">
-        <v>400</v>
       </c>
       <c r="V62" s="3">
         <v>400</v>
       </c>
       <c r="W62" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="X62" s="3">
         <v>200</v>
@@ -4514,13 +4660,16 @@
         <v>200</v>
       </c>
       <c r="Z62" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA62" s="3">
         <v>300</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E66" s="3">
         <v>22900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>21100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>22200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>22600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>32200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>45300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>44500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>47700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>46000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>40400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>38900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>39700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>40100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>36600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>32400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>30700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>34800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>37300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>27300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>33900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>34500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>34300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>36500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>39300</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-409700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-410200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-410000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-409000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-407100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-409600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-412100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-410600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-409900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-410300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-407600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-405500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-403700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-404800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-405200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-404400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-405000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-404700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-402000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-399600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-395100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-394100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-392200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-391500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-390400</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>74000</v>
+      </c>
+      <c r="E76" s="3">
         <v>73500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>73800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>74500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>76200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>73700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>33000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>34200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>33900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>32500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>33300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>35500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>36700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>35700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>35000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>33900</v>
-      </c>
-      <c r="S76" s="3">
-        <v>30200</v>
       </c>
       <c r="T76" s="3">
         <v>30200</v>
       </c>
       <c r="U76" s="3">
+        <v>30200</v>
+      </c>
+      <c r="V76" s="3">
         <v>24600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>24000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>15900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>16400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>5200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>4100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-4500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
@@ -5823,7 +6022,7 @@
         <v>600</v>
       </c>
       <c r="E83" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F83" s="3">
         <v>500</v>
@@ -5838,7 +6037,7 @@
         <v>500</v>
       </c>
       <c r="J83" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K83" s="3">
         <v>800</v>
@@ -5850,19 +6049,19 @@
         <v>800</v>
       </c>
       <c r="N83" s="3">
+        <v>800</v>
+      </c>
+      <c r="O83" s="3">
         <v>900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1000</v>
-      </c>
-      <c r="P83" s="3">
-        <v>900</v>
       </c>
       <c r="Q83" s="3">
         <v>900</v>
       </c>
       <c r="R83" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="S83" s="3">
         <v>800</v>
@@ -5871,7 +6070,7 @@
         <v>800</v>
       </c>
       <c r="U83" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="V83" s="3">
         <v>700</v>
@@ -5883,16 +6082,19 @@
         <v>700</v>
       </c>
       <c r="Y83" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z83" s="3">
         <v>600</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>700</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-900</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>1200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-3000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-2600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-2400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-800</v>
       </c>
-      <c r="Z89" s="3">
-        <v>0</v>
-      </c>
       <c r="AA89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -6382,40 +6602,41 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-500</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-100</v>
       </c>
       <c r="N91" s="3">
         <v>-100</v>
@@ -6424,34 +6645,34 @@
         <v>-100</v>
       </c>
       <c r="P91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-200</v>
-      </c>
-      <c r="Y91" s="3">
-        <v>-100</v>
       </c>
       <c r="Z91" s="3">
         <v>-100</v>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -6613,76 +6840,79 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
-        <v>-1400</v>
+        <v>0</v>
       </c>
       <c r="R94" s="3">
         <v>-1400</v>
       </c>
       <c r="S94" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="T94" s="3">
         <v>-400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-200</v>
-      </c>
-      <c r="Y94" s="3">
-        <v>-100</v>
       </c>
       <c r="Z94" s="3">
         <v>-100</v>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -7027,235 +7270,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-10300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>27900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-4100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>5300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>4900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>6200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>12300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-600</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
       <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-300</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-100</v>
       </c>
       <c r="H101" s="3">
         <v>-100</v>
       </c>
       <c r="I101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J101" s="3">
         <v>-300</v>
-      </c>
-      <c r="J101" s="3">
-        <v>300</v>
       </c>
       <c r="K101" s="3">
         <v>300</v>
       </c>
       <c r="L101" s="3">
+        <v>300</v>
+      </c>
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>200</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>100</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-7200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>24900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-3700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-2400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>3300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-2200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>10100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INVE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INVE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
   <si>
     <t>INVE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,384 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>29000</v>
+      </c>
+      <c r="F8" s="3">
         <v>31000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>27900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>25100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>28500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>29100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>24000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>22200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>24800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>24900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>19100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>18100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>19000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>23000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>22200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>19500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>21300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>20000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>20300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>16500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>16600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>15400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>14800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>13400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>14600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>18400</v>
+      </c>
+      <c r="F9" s="3">
         <v>19800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>17600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>16100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>19100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>18000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>15200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>14500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>16300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>15000</v>
-      </c>
-      <c r="M9" s="3">
-        <v>11400</v>
-      </c>
-      <c r="N9" s="3">
-        <v>10600</v>
       </c>
       <c r="O9" s="3">
         <v>11400</v>
       </c>
       <c r="P9" s="3">
+        <v>10600</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>11400</v>
+      </c>
+      <c r="R9" s="3">
         <v>12500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>12400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>10800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>11100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>11500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>12100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>10000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>11600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>9600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>9200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>7700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>8400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>10600</v>
+      </c>
+      <c r="F10" s="3">
         <v>11200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>10300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>9000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>9400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>11100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>8800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>7700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>8500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>9900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>7700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>7500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>7600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>10500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>9800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>8700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>10200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>8500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>8200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>6500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>5000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>5800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>5600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>5700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>6200</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,79 +1071,81 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F12" s="3">
         <v>2600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>2500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>2500</v>
-      </c>
-      <c r="G12" s="3">
-        <v>2100</v>
-      </c>
-      <c r="H12" s="3">
-        <v>2100</v>
       </c>
       <c r="I12" s="3">
         <v>2100</v>
       </c>
       <c r="J12" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K12" s="3">
+        <v>2100</v>
+      </c>
+      <c r="L12" s="3">
         <v>2300</v>
-      </c>
-      <c r="K12" s="3">
-        <v>2400</v>
-      </c>
-      <c r="L12" s="3">
-        <v>2400</v>
       </c>
       <c r="M12" s="3">
         <v>2400</v>
       </c>
       <c r="N12" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="O12" s="3">
         <v>2400</v>
       </c>
       <c r="P12" s="3">
+        <v>2600</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>2400</v>
+      </c>
+      <c r="R12" s="3">
         <v>2100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>2100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>2000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>1900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>1900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>1800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>1700</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>1600</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>1600</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>1500</v>
-      </c>
-      <c r="Z12" s="3">
-        <v>1500</v>
       </c>
       <c r="AA12" s="3">
         <v>1500</v>
@@ -1126,8 +1153,14 @@
       <c r="AB12" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1206,88 +1239,100 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E14" s="3">
+        <v>100</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>-2700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>1200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>-100</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>1600</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>100</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>1800</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1313,10 +1358,10 @@
         <v>200</v>
       </c>
       <c r="K15" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="L15" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="M15" s="3">
         <v>400</v>
@@ -1340,10 +1385,10 @@
         <v>400</v>
       </c>
       <c r="T15" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="U15" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="V15" s="3">
         <v>300</v>
@@ -1366,8 +1411,14 @@
       <c r="AB15" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1444,182 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>28700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>28600</v>
+      </c>
+      <c r="F17" s="3">
         <v>30400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>28100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>26100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>30400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>27000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>21400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>23400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>25200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>23900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>21400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>20000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>20700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>21800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>21400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>20000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>20200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>20200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>22700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>18300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>20400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>15800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>16100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>13400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>14800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>15700</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>400</v>
+      </c>
+      <c r="F18" s="3">
         <v>600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>2100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>2600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>1000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-2300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-1900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-1700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>1200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>1100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-2400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-1800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-3800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="3">
         <v>-200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1583,8 +1648,10 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1598,153 +1665,165 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-400</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-600</v>
       </c>
       <c r="M20" s="3">
         <v>-400</v>
       </c>
       <c r="N20" s="3">
-        <v>-100</v>
+        <v>-600</v>
       </c>
       <c r="O20" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="P20" s="3">
         <v>-100</v>
       </c>
       <c r="Q20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S20" s="3">
         <v>-300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-800</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F21" s="3">
         <v>1100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>3100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>3000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-1200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>2100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>1400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>1500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-1900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-1500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-3900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>-200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>-300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1823,88 +1902,100 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>400</v>
+      </c>
+      <c r="F23" s="3">
         <v>500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-2000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>2600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>2500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-2700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-2000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>1200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-2700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-2300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-4600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-1900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1918,14 +2009,14 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>100</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -1936,28 +2027,28 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R24" s="3">
         <v>100</v>
       </c>
       <c r="S24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U24" s="3">
         <v>0</v>
@@ -1966,25 +2057,31 @@
         <v>0</v>
       </c>
       <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
         <v>-100</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
       <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3">
         <v>-100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>100</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2063,168 +2160,186 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>300</v>
+      </c>
+      <c r="F26" s="3">
         <v>500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>2500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>2500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-2700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-2000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>1100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-2700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-2300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-4500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-1900</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>-700</v>
-      </c>
-      <c r="AA26" s="3">
-        <v>-1100</v>
       </c>
       <c r="AB26" s="3">
         <v>-700</v>
       </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>-700</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-2200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>2300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>2200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-3000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-2300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-2100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-1100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-2700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-2300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-4500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-1900</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>-700</v>
-      </c>
-      <c r="AA27" s="3">
-        <v>-1100</v>
       </c>
       <c r="AB27" s="3">
         <v>-700</v>
       </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="AD27" s="3">
+        <v>-700</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2303,8 +2418,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2383,8 +2504,14 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2463,8 +2590,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2543,8 +2676,14 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -2558,153 +2697,165 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
-      </c>
-      <c r="K32" s="3">
-        <v>400</v>
-      </c>
-      <c r="L32" s="3">
-        <v>600</v>
       </c>
       <c r="M32" s="3">
         <v>400</v>
       </c>
       <c r="N32" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="O32" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="P32" s="3">
         <v>100</v>
       </c>
       <c r="Q32" s="3">
+        <v>100</v>
+      </c>
+      <c r="R32" s="3">
+        <v>100</v>
+      </c>
+      <c r="S32" s="3">
         <v>300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>800</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-2200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>2300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>2200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-3000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-2300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-2100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-1100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-2700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-2300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-4500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-1900</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>-700</v>
-      </c>
-      <c r="AA33" s="3">
-        <v>-1100</v>
       </c>
       <c r="AB33" s="3">
         <v>-700</v>
       </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="AD33" s="3">
+        <v>-700</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2783,173 +2934,191 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-2200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>2300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>2200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-3000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-2300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-2100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-1100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-2700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-2300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-4500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-1900</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>-700</v>
-      </c>
-      <c r="AA35" s="3">
-        <v>-1100</v>
       </c>
       <c r="AB35" s="3">
         <v>-700</v>
       </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="AD35" s="3">
+        <v>-700</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2978,8 +3147,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3008,88 +3179,96 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>16700</v>
+      </c>
+      <c r="F41" s="3">
         <v>21200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>25000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>27600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>28600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>29200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>36400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>11500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>11400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>12300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>13100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>8700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>9400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>11100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>11100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>8900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>10900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>14200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>17900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>16700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>19100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>15700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>18000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>7900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>9100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -3168,351 +3347,381 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>24800</v>
+      </c>
+      <c r="F43" s="3">
         <v>23600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>21000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>19500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>20000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>19300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>17700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>18900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>18900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>20400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>18000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>20000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>18400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>19300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>17600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>15500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>15000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>14100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>14000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>12500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>12300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>10600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>10600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>8800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>9400</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>30600</v>
+      </c>
+      <c r="E44" s="3">
+        <v>29000</v>
+      </c>
+      <c r="F44" s="3">
         <v>25100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>22200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>20500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>19900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>21600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>21900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>19300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>20300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>20400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>18700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>15900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>16100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>14000</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>13600</v>
-      </c>
-      <c r="R44" s="3">
-        <v>12500</v>
       </c>
       <c r="S44" s="3">
         <v>13600</v>
       </c>
       <c r="T44" s="3">
+        <v>12500</v>
+      </c>
+      <c r="U44" s="3">
+        <v>13600</v>
+      </c>
+      <c r="V44" s="3">
         <v>12000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>12800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>11600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>11100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>13400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>12500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>12600</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>11600</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AD44" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F45" s="3">
         <v>4600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>4400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>3700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>4300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>4100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>4700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>3100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>2800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>3200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>3000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>2500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>2300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>2800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>2900</v>
-      </c>
-      <c r="R45" s="3">
-        <v>2400</v>
-      </c>
-      <c r="S45" s="3">
-        <v>2700</v>
       </c>
       <c r="T45" s="3">
         <v>2400</v>
       </c>
       <c r="U45" s="3">
+        <v>2700</v>
+      </c>
+      <c r="V45" s="3">
+        <v>2400</v>
+      </c>
+      <c r="W45" s="3">
         <v>1900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>1900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>1800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>2500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>1900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>1800</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>1500</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>77300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>75100</v>
+      </c>
+      <c r="F46" s="3">
         <v>74500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>72600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>71300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>72700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>74200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>80700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>52800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>53400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>56300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>52800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>47200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>46200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>47100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>45200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>39200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>42200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>42700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>46500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>42600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>44200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>42300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>43000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>31100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>31700</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F47" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G47" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -3568,168 +3777,186 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>11100</v>
+      </c>
+      <c r="F48" s="3">
         <v>10200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>6700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>6100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>6200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>6500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>6800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>6700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>6200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>5900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>5800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>6100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>6700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>7300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>8000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>8600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>2600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>2100</v>
-      </c>
-      <c r="U48" s="3">
-        <v>2000</v>
-      </c>
-      <c r="V48" s="3">
-        <v>2200</v>
       </c>
       <c r="W48" s="3">
         <v>2000</v>
       </c>
       <c r="X48" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="Y48" s="3">
         <v>2000</v>
       </c>
       <c r="Z48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AB48" s="3">
         <v>2200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>2400</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>15500</v>
+      </c>
+      <c r="F49" s="3">
         <v>15700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>16100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>16500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>16700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>17000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>17300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>17600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>17800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>18300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>18900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>19500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>20300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>20900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>21500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>22400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>20300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>14900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>15500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>16100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>4400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>4700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>5100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>5500</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>5800</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3808,8 +4035,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3888,25 +4121,31 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="E52" s="3">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="F52" s="3">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="G52" s="3">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="H52" s="3">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="I52" s="3">
         <v>1100</v>
@@ -3915,61 +4154,67 @@
         <v>1100</v>
       </c>
       <c r="K52" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="L52" s="3">
         <v>1100</v>
       </c>
       <c r="M52" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="N52" s="3">
         <v>1100</v>
       </c>
       <c r="O52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P52" s="3">
         <v>1100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R52" s="3">
         <v>1200</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>1200</v>
-      </c>
-      <c r="R52" s="3">
-        <v>1300</v>
       </c>
       <c r="S52" s="3">
         <v>1200</v>
       </c>
       <c r="T52" s="3">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="U52" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="V52" s="3">
         <v>1100</v>
       </c>
       <c r="W52" s="3">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="X52" s="3">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="Y52" s="3">
         <v>700</v>
       </c>
       <c r="Z52" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AA52" s="3">
         <v>700</v>
       </c>
       <c r="AB52" s="3">
+        <v>800</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>700</v>
+      </c>
+      <c r="AD52" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -4048,88 +4293,100 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>105600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>102800</v>
+      </c>
+      <c r="F54" s="3">
         <v>101400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>96400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>94900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>96700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>98800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>105900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>78300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>78700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>81600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>78500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>73800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>74300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>76500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>75900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>71600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>66300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>60900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>65000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>61900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>51400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>49800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>50800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>39500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>40600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4158,8 +4415,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4188,93 +4447,101 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>14800</v>
+      </c>
+      <c r="F57" s="3">
         <v>15100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>13800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>11300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>10500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>9300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>8600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>10200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>11000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>9500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>9200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>8500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>8800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>7600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>8200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>6300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>5700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>5600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>7200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>7000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>5900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>7600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>8500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>7400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>6000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>91</v>
+      <c r="D58" s="3">
+        <v>9900</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>91</v>
@@ -4282,234 +4549,252 @@
       <c r="F58" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>10400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>23100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>21100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>24700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>23800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>18400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>15500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>16000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>14300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>12800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>14600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>14200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>16500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>15300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>10700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>10800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>9400</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>8700</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>8900</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F59" s="3">
         <v>8700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>8000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>8600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>10300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>11300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>11100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>9400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>9500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>9700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>8600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>9300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>10200</v>
-      </c>
-      <c r="P59" s="3">
-        <v>10800</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>11500</v>
       </c>
       <c r="R59" s="3">
         <v>10800</v>
       </c>
       <c r="S59" s="3">
+        <v>11500</v>
+      </c>
+      <c r="T59" s="3">
+        <v>10800</v>
+      </c>
+      <c r="U59" s="3">
         <v>9200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>7100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>7400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>9400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>4600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>5800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>6000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>6700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>7600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>23400</v>
+      </c>
+      <c r="F60" s="3">
         <v>23800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>21800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>20000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>20800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>20800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>30100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>42700</v>
-      </c>
-      <c r="K60" s="3">
-        <v>41600</v>
-      </c>
-      <c r="L60" s="3">
-        <v>43900</v>
       </c>
       <c r="M60" s="3">
         <v>41600</v>
       </c>
       <c r="N60" s="3">
+        <v>43900</v>
+      </c>
+      <c r="O60" s="3">
+        <v>41600</v>
+      </c>
+      <c r="P60" s="3">
         <v>36200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>34500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>34400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>34000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>29900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>29500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>26900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>31200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>31800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>21200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>24100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>23900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>22900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>22600</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
@@ -4538,138 +4823,150 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>1200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>1600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>1900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>2200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>2400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>5400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>5900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>9800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>10600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>11400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>13800</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F62" s="3">
         <v>3700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>2100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>2900</v>
-      </c>
-      <c r="L62" s="3">
-        <v>3500</v>
-      </c>
-      <c r="M62" s="3">
-        <v>3900</v>
       </c>
       <c r="N62" s="3">
         <v>3500</v>
       </c>
       <c r="O62" s="3">
+        <v>3900</v>
+      </c>
+      <c r="P62" s="3">
+        <v>3500</v>
+      </c>
+      <c r="Q62" s="3">
         <v>4000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>4500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>5000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>5300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>1300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>1900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>1400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>400</v>
-      </c>
-      <c r="X62" s="3">
-        <v>200</v>
-      </c>
-      <c r="Y62" s="3">
-        <v>200</v>
       </c>
       <c r="Z62" s="3">
         <v>200</v>
       </c>
       <c r="AA62" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB62" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC62" s="3">
         <v>300</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4748,8 +5045,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4828,8 +5131,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4908,88 +5217,100 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E66" s="3">
         <v>27400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
+        <v>27400</v>
+      </c>
+      <c r="G66" s="3">
         <v>22900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>21100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>22200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>22600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>32200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>45300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>44500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>47700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>46000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>40400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>38900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>39700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>40100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>36600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>32400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>30700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>34800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>37300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>27300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>33900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>34500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>34300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>36500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>39300</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -5018,8 +5339,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -5098,8 +5421,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5178,8 +5507,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5258,8 +5593,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5338,88 +5679,100 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-412100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-409400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-409700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-410200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-410000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-409000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-407100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-409600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-412100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-410600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-409900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-410300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-407600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-405500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-403700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-404800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-405200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-404400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-405000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-404700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-402000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-399600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-395100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-394100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-392200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-391500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-390400</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5498,8 +5851,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5578,8 +5937,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5658,88 +6023,100 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>73600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>75400</v>
+      </c>
+      <c r="F76" s="3">
         <v>74000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>73500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>73800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>74500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>76200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>73700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>33000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>34200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>33900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>32500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>33300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>35500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>36700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>35700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>35000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>33900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>30200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>30200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>24600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>24000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>15900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>16400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>5200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>4100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5818,173 +6195,191 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-2200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>2300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>2200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-3000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-2300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-2100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-1100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-2700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-2300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-4500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-1900</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>-700</v>
-      </c>
-      <c r="AA81" s="3">
-        <v>-1100</v>
       </c>
       <c r="AB81" s="3">
         <v>-700</v>
       </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="AD81" s="3">
+        <v>-700</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -6013,8 +6408,10 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
@@ -6025,10 +6422,10 @@
         <v>600</v>
       </c>
       <c r="F83" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G83" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H83" s="3">
         <v>500</v>
@@ -6040,10 +6437,10 @@
         <v>500</v>
       </c>
       <c r="K83" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L83" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M83" s="3">
         <v>800</v>
@@ -6052,31 +6449,31 @@
         <v>800</v>
       </c>
       <c r="O83" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="P83" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q83" s="3">
         <v>900</v>
       </c>
       <c r="R83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S83" s="3">
         <v>900</v>
       </c>
-      <c r="S83" s="3">
-        <v>800</v>
-      </c>
       <c r="T83" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="U83" s="3">
         <v>800</v>
       </c>
       <c r="V83" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="W83" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="X83" s="3">
         <v>700</v>
@@ -6085,16 +6482,22 @@
         <v>700</v>
       </c>
       <c r="Z83" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AA83" s="3">
         <v>700</v>
       </c>
       <c r="AB83" s="3">
+        <v>600</v>
+      </c>
+      <c r="AC83" s="3">
+        <v>700</v>
+      </c>
+      <c r="AD83" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -6173,8 +6576,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6253,8 +6662,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6333,8 +6748,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -6413,8 +6834,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6493,88 +6920,100 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F89" s="3">
         <v>-2100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-900</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>1200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>2900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-2500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>3600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-3700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>1500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-2200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-3000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-2600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-1900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-800</v>
       </c>
-      <c r="AA89" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -6603,88 +7042,96 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-1100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-1100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-500</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-100</v>
       </c>
       <c r="P91" s="3">
         <v>-100</v>
       </c>
       <c r="Q91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R91" s="3">
         <v>-100</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U91" s="3">
         <v>-700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-200</v>
-      </c>
-      <c r="Z91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="AA91" s="3">
-        <v>-100</v>
       </c>
       <c r="AB91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6763,8 +7210,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -6843,46 +7296,52 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-1100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-500</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
       </c>
       <c r="P94" s="3">
         <v>-100</v>
@@ -6891,40 +7350,46 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-1400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-1400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-1500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-200</v>
-      </c>
-      <c r="Z94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="AA94" s="3">
-        <v>-100</v>
       </c>
       <c r="AB94" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6953,8 +7418,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -7033,8 +7500,14 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -7113,8 +7586,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -7193,8 +7672,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -7273,123 +7758,135 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F100" s="3">
         <v>-300</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-400</v>
       </c>
       <c r="G100" s="3">
         <v>-200</v>
       </c>
       <c r="H100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J100" s="3">
         <v>-10300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>27900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>2000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-4100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>5300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>3400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>1400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>1200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-2000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-2600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>4900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-1500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>6200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>12300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-600</v>
       </c>
-      <c r="AA100" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>300</v>
-      </c>
-      <c r="M101" s="3">
-        <v>100</v>
-      </c>
-      <c r="N101" s="3">
-        <v>-300</v>
       </c>
       <c r="O101" s="3">
         <v>100</v>
@@ -7401,116 +7898,128 @@
         <v>100</v>
       </c>
       <c r="R101" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="S101" s="3">
         <v>100</v>
       </c>
       <c r="T101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U101" s="3">
+        <v>100</v>
+      </c>
+      <c r="V101" s="3">
         <v>-200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>400</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>-100</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>200</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>100</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AD101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F102" s="3">
         <v>-4000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-2800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-1100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-7200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>24900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>4400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-1700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>2200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-1900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-3400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-3700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>1200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-2400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>3300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>10100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INVE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INVE_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,384 +665,397 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>29600</v>
+      </c>
+      <c r="E8" s="3">
         <v>26000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>29000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>31000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>27900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>25100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>28500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>29100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>24000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>22200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>24800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>24900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>19100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>18100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>19000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>23000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>22200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>19500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>21300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>20000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>20300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>16500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>16600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>15400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>14800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>13400</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>14600</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E9" s="3">
         <v>16800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>18400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>19800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>17600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>16100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>19100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>18000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>15200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>14500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>16300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>15000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>11400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>10600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>11400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>12500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>12400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>10800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>11100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>11500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>12100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>10000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>11600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>9600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>9200</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>7700</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>8400</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E10" s="3">
         <v>9200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>10600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>11200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>10300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>9000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>9400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>11100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>9900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>7700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>7500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>7600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>10500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>9800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>8700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>10200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>8500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>8200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>6500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>5000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>5800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>5600</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>5700</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>6200</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,28 +1086,29 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E12" s="3">
         <v>2700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2600</v>
-      </c>
-      <c r="G12" s="3">
-        <v>2500</v>
       </c>
       <c r="H12" s="3">
         <v>2500</v>
       </c>
       <c r="I12" s="3">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="J12" s="3">
         <v>2100</v>
@@ -1103,10 +1117,10 @@
         <v>2100</v>
       </c>
       <c r="L12" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M12" s="3">
         <v>2300</v>
-      </c>
-      <c r="M12" s="3">
-        <v>2400</v>
       </c>
       <c r="N12" s="3">
         <v>2400</v>
@@ -1115,40 +1129,40 @@
         <v>2400</v>
       </c>
       <c r="P12" s="3">
+        <v>2400</v>
+      </c>
+      <c r="Q12" s="3">
         <v>2600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2400</v>
-      </c>
-      <c r="R12" s="3">
-        <v>2100</v>
       </c>
       <c r="S12" s="3">
         <v>2100</v>
       </c>
       <c r="T12" s="3">
+        <v>2100</v>
+      </c>
+      <c r="U12" s="3">
         <v>2000</v>
-      </c>
-      <c r="U12" s="3">
-        <v>1900</v>
       </c>
       <c r="V12" s="3">
         <v>1900</v>
       </c>
       <c r="W12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="X12" s="3">
         <v>1800</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1700</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>1600</v>
       </c>
       <c r="Z12" s="3">
         <v>1600</v>
       </c>
       <c r="AA12" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="AB12" s="3">
         <v>1500</v>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1245,99 +1262,105 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-100</v>
-      </c>
-      <c r="I14" s="3">
-        <v>100</v>
       </c>
       <c r="J14" s="3">
         <v>100</v>
       </c>
       <c r="K14" s="3">
+        <v>100</v>
+      </c>
+      <c r="L14" s="3">
         <v>-2700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1200</v>
-      </c>
-      <c r="P14" s="3">
-        <v>100</v>
       </c>
       <c r="Q14" s="3">
         <v>100</v>
       </c>
       <c r="R14" s="3">
+        <v>100</v>
+      </c>
+      <c r="S14" s="3">
         <v>-100</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
       <c r="U14" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="V14" s="3">
         <v>200</v>
       </c>
       <c r="W14" s="3">
+        <v>200</v>
+      </c>
+      <c r="X14" s="3">
         <v>1600</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>100</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>1800</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
       <c r="AA14" s="3">
         <v>0</v>
       </c>
       <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
         <v>-1000</v>
       </c>
-      <c r="AC14" s="3">
-        <v>0</v>
-      </c>
       <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E15" s="3">
         <v>200</v>
@@ -1364,7 +1387,7 @@
         <v>200</v>
       </c>
       <c r="M15" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N15" s="3">
         <v>400</v>
@@ -1391,7 +1414,7 @@
         <v>400</v>
       </c>
       <c r="V15" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="W15" s="3">
         <v>300</v>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>30600</v>
+      </c>
+      <c r="E17" s="3">
         <v>28700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>28600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>30400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>28100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>26100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>30400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>27000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>21400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>23400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>25200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>23900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>21400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>20000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>20700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>21800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>21400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>20000</v>
-      </c>
-      <c r="U17" s="3">
-        <v>20200</v>
       </c>
       <c r="V17" s="3">
         <v>20200</v>
       </c>
       <c r="W17" s="3">
+        <v>20200</v>
+      </c>
+      <c r="X17" s="3">
         <v>22700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>18300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>20400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>15800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>16100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>13400</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>14800</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>15700</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-2400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-3800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-1300</v>
       </c>
-      <c r="AB18" s="3">
-        <v>0</v>
-      </c>
       <c r="AC18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="3">
         <v>-200</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1650,13 +1683,14 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1671,28 +1705,28 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>500</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-200</v>
       </c>
       <c r="L20" s="3">
         <v>-200</v>
       </c>
       <c r="M20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N20" s="3">
         <v>-400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-400</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-100</v>
       </c>
       <c r="Q20" s="3">
         <v>-100</v>
@@ -1701,129 +1735,135 @@
         <v>-100</v>
       </c>
       <c r="S20" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="T20" s="3">
         <v>-300</v>
       </c>
       <c r="U20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V20" s="3">
         <v>-400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-600</v>
-      </c>
-      <c r="AB20" s="3">
-        <v>-800</v>
       </c>
       <c r="AC20" s="3">
         <v>-800</v>
       </c>
       <c r="AD20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="AE20" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-1900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-3900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-1200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-200</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-300</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1908,94 +1948,100 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-2700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-4600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-1900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-800</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-1000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -2003,23 +2049,23 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
@@ -2033,16 +2079,16 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
       <c r="R24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S24" s="3">
         <v>100</v>
@@ -2051,7 +2097,7 @@
         <v>100</v>
       </c>
       <c r="U24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V24" s="3">
         <v>0</v>
@@ -2063,25 +2109,28 @@
         <v>0</v>
       </c>
       <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
         <v>-100</v>
       </c>
-      <c r="Z24" s="3">
-        <v>0</v>
-      </c>
       <c r="AA24" s="3">
         <v>0</v>
       </c>
       <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
         <v>-100</v>
-      </c>
-      <c r="AC24" s="3">
-        <v>100</v>
       </c>
       <c r="AD24" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1900</v>
-      </c>
-      <c r="J26" s="3">
-        <v>2500</v>
       </c>
       <c r="K26" s="3">
         <v>2500</v>
       </c>
       <c r="L26" s="3">
+        <v>2500</v>
+      </c>
+      <c r="M26" s="3">
         <v>-1500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-2700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-4500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-1900</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-700</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-1100</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3000</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-2700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-4500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-1900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-700</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-1100</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2682,13 +2749,16 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2703,28 +2773,28 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-500</v>
-      </c>
-      <c r="K32" s="3">
-        <v>200</v>
       </c>
       <c r="L32" s="3">
         <v>200</v>
       </c>
       <c r="M32" s="3">
+        <v>200</v>
+      </c>
+      <c r="N32" s="3">
         <v>400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>400</v>
-      </c>
-      <c r="P32" s="3">
-        <v>100</v>
       </c>
       <c r="Q32" s="3">
         <v>100</v>
@@ -2733,129 +2803,135 @@
         <v>100</v>
       </c>
       <c r="S32" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="T32" s="3">
         <v>300</v>
       </c>
       <c r="U32" s="3">
+        <v>300</v>
+      </c>
+      <c r="V32" s="3">
         <v>400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>600</v>
-      </c>
-      <c r="AB32" s="3">
-        <v>800</v>
       </c>
       <c r="AC32" s="3">
         <v>800</v>
       </c>
       <c r="AD32" s="3">
+        <v>800</v>
+      </c>
+      <c r="AE32" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3000</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-4500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-1900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-700</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-1100</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3000</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-4500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-1900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-700</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-1100</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3181,94 +3267,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E41" s="3">
         <v>20800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>16700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>21200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>25000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>27600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>28600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>29200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>36400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>11400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>12300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>13100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9400</v>
-      </c>
-      <c r="R41" s="3">
-        <v>11100</v>
       </c>
       <c r="S41" s="3">
         <v>11100</v>
       </c>
       <c r="T41" s="3">
+        <v>11100</v>
+      </c>
+      <c r="U41" s="3">
         <v>8900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>10900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>14200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>17900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>16700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>19100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>15700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>18000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>7900</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>9100</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -3353,352 +3443,367 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E43" s="3">
         <v>21100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>24800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>23600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>21000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>19500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>20000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>19300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>17700</v>
-      </c>
-      <c r="L43" s="3">
-        <v>18900</v>
       </c>
       <c r="M43" s="3">
         <v>18900</v>
       </c>
       <c r="N43" s="3">
+        <v>18900</v>
+      </c>
+      <c r="O43" s="3">
         <v>20400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>18000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>20000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>18400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>19300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>17600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>15500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>15000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>14100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>14000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>12500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>12300</v>
-      </c>
-      <c r="Z43" s="3">
-        <v>10600</v>
       </c>
       <c r="AA43" s="3">
         <v>10600</v>
       </c>
       <c r="AB43" s="3">
+        <v>10600</v>
+      </c>
+      <c r="AC43" s="3">
         <v>8800</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>9400</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>31100</v>
+      </c>
+      <c r="E44" s="3">
         <v>30600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>29000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>25100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>22200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>20500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>19900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>21600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>21900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>19300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>20300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>20400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>18700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>15900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>16100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>14000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>13600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>12500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>13600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>12000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>12800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>11600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>11100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>13400</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>12500</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>12600</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>11600</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>4700</v>
+        <v>5400</v>
       </c>
       <c r="E45" s="3">
         <v>4700</v>
       </c>
       <c r="F45" s="3">
+        <v>4700</v>
+      </c>
+      <c r="G45" s="3">
         <v>4600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2400</v>
-      </c>
-      <c r="W45" s="3">
-        <v>1900</v>
       </c>
       <c r="X45" s="3">
         <v>1900</v>
       </c>
       <c r="Y45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Z45" s="3">
         <v>1800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>2500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1900</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1800</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>1500</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>81300</v>
+      </c>
+      <c r="E46" s="3">
         <v>77300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>75100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>74500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>72600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>71300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>72700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>74200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>80700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>52800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>53400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>56300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>52800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>47200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>46200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>47100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>45200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>39200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>42200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>42700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>46500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>42600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>44200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>42300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>43000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>31100</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>31700</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -3717,14 +3822,14 @@
       <c r="H47" s="3">
         <v>300</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>91</v>
+      <c r="I47" s="3">
+        <v>300</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -3783,180 +3888,189 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E48" s="3">
         <v>11900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>11100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>10200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>7300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>8000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>8600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>2100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>2000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>2200</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>2400</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E49" s="3">
         <v>15200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>15500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>15700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>16100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>16500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>16700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>17000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>17300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>17600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>17800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>18300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>18900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>19500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>20300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>20900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>21500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>22400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>20300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>14900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>15500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>16100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>4400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>4700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>5100</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>5500</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>5800</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -4127,8 +4244,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
@@ -4139,7 +4259,7 @@
         <v>800</v>
       </c>
       <c r="F52" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G52" s="3">
         <v>700</v>
@@ -4148,7 +4268,7 @@
         <v>700</v>
       </c>
       <c r="I52" s="3">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="J52" s="3">
         <v>1100</v>
@@ -4160,43 +4280,43 @@
         <v>1100</v>
       </c>
       <c r="M52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N52" s="3">
         <v>1200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1000</v>
-      </c>
-      <c r="P52" s="3">
-        <v>1100</v>
       </c>
       <c r="Q52" s="3">
         <v>1100</v>
       </c>
       <c r="R52" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="S52" s="3">
         <v>1200</v>
       </c>
       <c r="T52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U52" s="3">
         <v>1300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1100</v>
-      </c>
-      <c r="Y52" s="3">
-        <v>700</v>
       </c>
       <c r="Z52" s="3">
         <v>700</v>
@@ -4205,16 +4325,19 @@
         <v>700</v>
       </c>
       <c r="AB52" s="3">
+        <v>700</v>
+      </c>
+      <c r="AC52" s="3">
         <v>800</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>700</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>111700</v>
+      </c>
+      <c r="E54" s="3">
         <v>105600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>102800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>101400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>96400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>94900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>96700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>98800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>105900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>78300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>78700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>81600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>78500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>73800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>74300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>76500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>75900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>71600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>66300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>60900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>65000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>61900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>51400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>49800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>50800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>39500</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>40600</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4449,102 +4579,106 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E57" s="3">
         <v>9900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>14800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>15100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>13800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>11300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>10500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>9300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>10200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>11000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>9200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>8500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>8800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>7600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>8200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>6300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>5700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>5600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>7200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>7000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>5900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>7600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>8500</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>7400</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>6000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E58" s="3">
         <v>9900</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>91</v>
@@ -4555,246 +4689,255 @@
       <c r="H58" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
+      <c r="I58" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>10400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>23100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>21100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>24700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>23800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>18400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>15500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>16000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>14300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>12800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>14600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>14200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>16500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>15300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>10700</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>10800</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>9400</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>8700</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>8900</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E59" s="3">
         <v>8000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>10300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>11300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>9500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>9700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>8600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>9300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>10200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>10800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>11500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>10800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>9200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>7100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>7400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>9400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>4600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>5800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>6000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>6700</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>7600</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>32200</v>
+      </c>
+      <c r="E60" s="3">
         <v>27900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>23400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>23800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>21800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>20000</v>
-      </c>
-      <c r="I60" s="3">
-        <v>20800</v>
       </c>
       <c r="J60" s="3">
         <v>20800</v>
       </c>
       <c r="K60" s="3">
+        <v>20800</v>
+      </c>
+      <c r="L60" s="3">
         <v>30100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>42700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>41600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>43900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>41600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>36200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>34500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>34400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>34000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>29900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>29500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>26900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>31200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>31800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>21200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>24100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>23900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>22900</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>22600</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
@@ -4829,129 +4972,132 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>5400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>5900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>9800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>10600</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>11400</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>13800</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>4000</v>
+        <v>5200</v>
       </c>
       <c r="E62" s="3">
         <v>4000</v>
       </c>
       <c r="F62" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G62" s="3">
         <v>3700</v>
-      </c>
-      <c r="G62" s="3">
-        <v>1100</v>
       </c>
       <c r="H62" s="3">
         <v>1100</v>
       </c>
       <c r="I62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J62" s="3">
         <v>1300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>5000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>5300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1400</v>
-      </c>
-      <c r="X62" s="3">
-        <v>400</v>
       </c>
       <c r="Y62" s="3">
         <v>400</v>
       </c>
       <c r="Z62" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="AA62" s="3">
         <v>200</v>
@@ -4960,13 +5106,16 @@
         <v>200</v>
       </c>
       <c r="AC62" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD62" s="3">
         <v>300</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>37400</v>
+      </c>
+      <c r="E66" s="3">
         <v>32000</v>
-      </c>
-      <c r="E66" s="3">
-        <v>27400</v>
       </c>
       <c r="F66" s="3">
         <v>27400</v>
       </c>
       <c r="G66" s="3">
+        <v>27400</v>
+      </c>
+      <c r="H66" s="3">
         <v>22900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>21100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>22200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>22600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>32200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>45300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>44500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>47700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>46000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>40400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>38900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>39700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>40100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>36600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>32400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>30700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>34800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>37300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>27300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>33900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>34500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>34300</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>36500</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>39300</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-413200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-412100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-409400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-409700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-410200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-410000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-409000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-407100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-409600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-412100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-410600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-409900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-410300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-407600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-405500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-403700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-404800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-405200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-404400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-405000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-404700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-402000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-399600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-395100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-394100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-392200</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-391500</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-390400</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>74300</v>
+      </c>
+      <c r="E76" s="3">
         <v>73600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>75400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>74000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>73500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>73800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>74500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>76200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>73700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>33000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>34200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>33900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>32500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>33300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>35500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>36700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>35700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>35000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>33900</v>
-      </c>
-      <c r="V76" s="3">
-        <v>30200</v>
       </c>
       <c r="W76" s="3">
         <v>30200</v>
       </c>
       <c r="X76" s="3">
+        <v>30200</v>
+      </c>
+      <c r="Y76" s="3">
         <v>24600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>24000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>15900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>16400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>5200</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>4100</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3000</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-4500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-1900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-700</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-1100</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
@@ -6428,7 +6627,7 @@
         <v>600</v>
       </c>
       <c r="H83" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I83" s="3">
         <v>500</v>
@@ -6443,7 +6642,7 @@
         <v>500</v>
       </c>
       <c r="M83" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N83" s="3">
         <v>800</v>
@@ -6455,19 +6654,19 @@
         <v>800</v>
       </c>
       <c r="Q83" s="3">
+        <v>800</v>
+      </c>
+      <c r="R83" s="3">
         <v>900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1000</v>
-      </c>
-      <c r="S83" s="3">
-        <v>900</v>
       </c>
       <c r="T83" s="3">
         <v>900</v>
       </c>
       <c r="U83" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="V83" s="3">
         <v>800</v>
@@ -6476,7 +6675,7 @@
         <v>800</v>
       </c>
       <c r="X83" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Y83" s="3">
         <v>700</v>
@@ -6488,16 +6687,19 @@
         <v>700</v>
       </c>
       <c r="AB83" s="3">
+        <v>700</v>
+      </c>
+      <c r="AC83" s="3">
         <v>600</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>700</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-900</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>1200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-2200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-3000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-2400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-1900</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-800</v>
       </c>
-      <c r="AC89" s="3">
-        <v>0</v>
-      </c>
       <c r="AD89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -7044,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
@@ -7053,40 +7274,40 @@
         <v>-1200</v>
       </c>
       <c r="E91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-500</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-100</v>
       </c>
       <c r="Q91" s="3">
         <v>-100</v>
@@ -7095,34 +7316,34 @@
         <v>-100</v>
       </c>
       <c r="S91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-200</v>
-      </c>
-      <c r="AB91" s="3">
-        <v>-100</v>
       </c>
       <c r="AC91" s="3">
         <v>-100</v>
@@ -7130,8 +7351,11 @@
       <c r="AD91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -7302,8 +7529,11 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
@@ -7311,76 +7541,76 @@
         <v>-1200</v>
       </c>
       <c r="E94" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
-        <v>-1400</v>
+        <v>0</v>
       </c>
       <c r="U94" s="3">
         <v>-1400</v>
       </c>
       <c r="V94" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="W94" s="3">
         <v>-400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-200</v>
-      </c>
-      <c r="AB94" s="3">
-        <v>-100</v>
       </c>
       <c r="AC94" s="3">
         <v>-100</v>
@@ -7388,8 +7618,11 @@
       <c r="AD94" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -7764,262 +8007,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>900</v>
+      </c>
+      <c r="E100" s="3">
         <v>9800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-10300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>27900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>5300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>3400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>4900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>6200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>12300</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-600</v>
       </c>
-      <c r="AC100" s="3">
-        <v>0</v>
-      </c>
       <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-300</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-100</v>
       </c>
       <c r="K101" s="3">
         <v>-100</v>
       </c>
       <c r="L101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M101" s="3">
         <v>-300</v>
-      </c>
-      <c r="M101" s="3">
-        <v>300</v>
       </c>
       <c r="N101" s="3">
         <v>300</v>
       </c>
       <c r="O101" s="3">
+        <v>300</v>
+      </c>
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>200</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>400</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-100</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>200</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>100</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E102" s="3">
         <v>4000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-4000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-7200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>24900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-3400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-3700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>3300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-2200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>10100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-1200</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-100</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INVE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INVE_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,397 +665,410 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E8" s="3">
         <v>29600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>26000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>29000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>31000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>27900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>25100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>28500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>29100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>24000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>22200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>24800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>24900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>19100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>18100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>19000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>23000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>22200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>19500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>21300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>20000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>20300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>16500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>16600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>15400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>14800</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>13400</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>14600</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E9" s="3">
         <v>18700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>16800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>18400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>19800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>17600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>16100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>19100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>18000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>15200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>14500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>16300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>15000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>11400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>10600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>11400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>12500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>12400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>10800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>11100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>11500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>12100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>10000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>11600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>9600</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>9200</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>7700</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>8400</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E10" s="3">
         <v>10900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>9200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>10600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>11200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>10300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>9000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>9400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>11100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>8500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>9900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>7700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>7500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>7600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>10500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>9800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>8700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>10200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>8500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>8200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>6500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>5000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>5800</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>5600</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>5700</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>6200</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,31 +1100,32 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E12" s="3">
         <v>3000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2600</v>
-      </c>
-      <c r="H12" s="3">
-        <v>2500</v>
       </c>
       <c r="I12" s="3">
         <v>2500</v>
       </c>
       <c r="J12" s="3">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="K12" s="3">
         <v>2100</v>
@@ -1120,10 +1134,10 @@
         <v>2100</v>
       </c>
       <c r="M12" s="3">
+        <v>2100</v>
+      </c>
+      <c r="N12" s="3">
         <v>2300</v>
-      </c>
-      <c r="N12" s="3">
-        <v>2400</v>
       </c>
       <c r="O12" s="3">
         <v>2400</v>
@@ -1132,40 +1146,40 @@
         <v>2400</v>
       </c>
       <c r="Q12" s="3">
+        <v>2400</v>
+      </c>
+      <c r="R12" s="3">
         <v>2600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>2400</v>
-      </c>
-      <c r="S12" s="3">
-        <v>2100</v>
       </c>
       <c r="T12" s="3">
         <v>2100</v>
       </c>
       <c r="U12" s="3">
+        <v>2100</v>
+      </c>
+      <c r="V12" s="3">
         <v>2000</v>
-      </c>
-      <c r="V12" s="3">
-        <v>1900</v>
       </c>
       <c r="W12" s="3">
         <v>1900</v>
       </c>
       <c r="X12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Y12" s="3">
         <v>1800</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1700</v>
-      </c>
-      <c r="Z12" s="3">
-        <v>1600</v>
       </c>
       <c r="AA12" s="3">
         <v>1600</v>
       </c>
       <c r="AB12" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="AC12" s="3">
         <v>1500</v>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1265,8 +1282,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1274,88 +1294,91 @@
         <v>100</v>
       </c>
       <c r="E14" s="3">
+        <v>100</v>
+      </c>
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>100</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-100</v>
-      </c>
-      <c r="J14" s="3">
-        <v>100</v>
       </c>
       <c r="K14" s="3">
         <v>100</v>
       </c>
       <c r="L14" s="3">
+        <v>100</v>
+      </c>
+      <c r="M14" s="3">
         <v>-2700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1200</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>100</v>
       </c>
       <c r="R14" s="3">
         <v>100</v>
       </c>
       <c r="S14" s="3">
+        <v>100</v>
+      </c>
+      <c r="T14" s="3">
         <v>-100</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
       <c r="V14" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="W14" s="3">
         <v>200</v>
       </c>
       <c r="X14" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y14" s="3">
         <v>1600</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>100</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>1800</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
       <c r="AB14" s="3">
         <v>0</v>
       </c>
       <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
         <v>-1000</v>
       </c>
-      <c r="AD14" s="3">
-        <v>0</v>
-      </c>
       <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1363,7 +1386,7 @@
         <v>100</v>
       </c>
       <c r="E15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F15" s="3">
         <v>200</v>
@@ -1390,7 +1413,7 @@
         <v>200</v>
       </c>
       <c r="N15" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="O15" s="3">
         <v>400</v>
@@ -1417,7 +1440,7 @@
         <v>400</v>
       </c>
       <c r="W15" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="X15" s="3">
         <v>300</v>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,186 +1499,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>31500</v>
+      </c>
+      <c r="E17" s="3">
         <v>30600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>28700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>28600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>30400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>28100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>26100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>30400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>27000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>21400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>23400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>25200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>23900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>21400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>20000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>20700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>21800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>21400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>20000</v>
-      </c>
-      <c r="V17" s="3">
-        <v>20200</v>
       </c>
       <c r="W17" s="3">
         <v>20200</v>
       </c>
       <c r="X17" s="3">
+        <v>20200</v>
+      </c>
+      <c r="Y17" s="3">
         <v>22700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>18300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>20400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>15800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>16100</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>13400</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>14800</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>15700</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-3800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-1300</v>
       </c>
-      <c r="AC18" s="3">
-        <v>0</v>
-      </c>
       <c r="AD18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="3">
         <v>-200</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1684,17 +1717,18 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1708,28 +1742,28 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-200</v>
       </c>
       <c r="M20" s="3">
         <v>-200</v>
       </c>
       <c r="N20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O20" s="3">
         <v>-400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-100</v>
       </c>
       <c r="R20" s="3">
         <v>-100</v>
@@ -1738,132 +1772,138 @@
         <v>-100</v>
       </c>
       <c r="T20" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="U20" s="3">
         <v>-300</v>
       </c>
       <c r="V20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W20" s="3">
         <v>-400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-700</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-600</v>
-      </c>
-      <c r="AC20" s="3">
-        <v>-800</v>
       </c>
       <c r="AD20" s="3">
         <v>-800</v>
       </c>
       <c r="AE20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="AF20" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-3900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-1200</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-200</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>-300</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1951,97 +1991,103 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-2300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-4600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-1900</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-800</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-1000</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -2052,23 +2098,23 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -2082,16 +2128,16 @@
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
       <c r="S24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T24" s="3">
         <v>100</v>
@@ -2100,7 +2146,7 @@
         <v>100</v>
       </c>
       <c r="V24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W24" s="3">
         <v>0</v>
@@ -2112,25 +2158,28 @@
         <v>0</v>
       </c>
       <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
         <v>-100</v>
       </c>
-      <c r="AA24" s="3">
-        <v>0</v>
-      </c>
       <c r="AB24" s="3">
         <v>0</v>
       </c>
       <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
         <v>-100</v>
-      </c>
-      <c r="AD24" s="3">
-        <v>100</v>
       </c>
       <c r="AE24" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1900</v>
-      </c>
-      <c r="K26" s="3">
-        <v>2500</v>
       </c>
       <c r="L26" s="3">
         <v>2500</v>
       </c>
       <c r="M26" s="3">
+        <v>2500</v>
+      </c>
+      <c r="N26" s="3">
         <v>-1500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-2300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-4500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-1900</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-700</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-1100</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3000</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-2300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-4500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-1900</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-700</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-1100</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2752,17 +2819,20 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>300</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -2776,28 +2846,28 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
-      </c>
-      <c r="L32" s="3">
-        <v>200</v>
       </c>
       <c r="M32" s="3">
         <v>200</v>
       </c>
       <c r="N32" s="3">
+        <v>200</v>
+      </c>
+      <c r="O32" s="3">
         <v>400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>400</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>100</v>
       </c>
       <c r="R32" s="3">
         <v>100</v>
@@ -2806,132 +2876,138 @@
         <v>100</v>
       </c>
       <c r="T32" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="U32" s="3">
         <v>300</v>
       </c>
       <c r="V32" s="3">
+        <v>300</v>
+      </c>
+      <c r="W32" s="3">
         <v>400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>700</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>600</v>
-      </c>
-      <c r="AC32" s="3">
-        <v>800</v>
       </c>
       <c r="AD32" s="3">
         <v>800</v>
       </c>
       <c r="AE32" s="3">
+        <v>800</v>
+      </c>
+      <c r="AF32" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3000</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-2300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-4500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-1900</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-700</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-1100</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3000</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-2300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-4500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-1900</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-700</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-1100</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3268,97 +3354,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E41" s="3">
         <v>21900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>20800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>16700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>21200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>25000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>27600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>28600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>29200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>36400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>11500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>11400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>12300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>13100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>8700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9400</v>
-      </c>
-      <c r="S41" s="3">
-        <v>11100</v>
       </c>
       <c r="T41" s="3">
         <v>11100</v>
       </c>
       <c r="U41" s="3">
+        <v>11100</v>
+      </c>
+      <c r="V41" s="3">
         <v>8900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>10900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>14200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>17900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>16700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>19100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>15700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>18000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>7900</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>9100</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -3446,364 +3536,379 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>25900</v>
+      </c>
+      <c r="E43" s="3">
         <v>22900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>21100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>24800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>23600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>21000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>19500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>20000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>19300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>17700</v>
-      </c>
-      <c r="M43" s="3">
-        <v>18900</v>
       </c>
       <c r="N43" s="3">
         <v>18900</v>
       </c>
       <c r="O43" s="3">
+        <v>18900</v>
+      </c>
+      <c r="P43" s="3">
         <v>20400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>18000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>20000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>18400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>19300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>17600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>15500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>15000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>14100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>14000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>12500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>12300</v>
-      </c>
-      <c r="AA43" s="3">
-        <v>10600</v>
       </c>
       <c r="AB43" s="3">
         <v>10600</v>
       </c>
       <c r="AC43" s="3">
+        <v>10600</v>
+      </c>
+      <c r="AD43" s="3">
         <v>8800</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>9400</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>29400</v>
+      </c>
+      <c r="E44" s="3">
         <v>31100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>30600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>29000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>25100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>22200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>20500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>19900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>21600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>21900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>19300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>20300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>20400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>18700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>15900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>16100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>14000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>13600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>12500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>13600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>12000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>12800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>11600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>11100</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>13400</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>12500</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>12600</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>11600</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E45" s="3">
         <v>5400</v>
-      </c>
-      <c r="E45" s="3">
-        <v>4700</v>
       </c>
       <c r="F45" s="3">
         <v>4700</v>
       </c>
       <c r="G45" s="3">
+        <v>4700</v>
+      </c>
+      <c r="H45" s="3">
         <v>4600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2400</v>
-      </c>
-      <c r="X45" s="3">
-        <v>1900</v>
       </c>
       <c r="Y45" s="3">
         <v>1900</v>
       </c>
       <c r="Z45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="AA45" s="3">
         <v>1800</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>2500</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1900</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>1800</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>1500</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>81500</v>
+      </c>
+      <c r="E46" s="3">
         <v>81300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>77300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>75100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>74500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>72600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>71300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>72700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>74200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>80700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>52800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>53400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>56300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>52800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>47200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>46200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>47100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>45200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>39200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>42200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>42700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>46500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>42600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>44200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>42300</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>43000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>31100</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>31700</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -3825,14 +3930,14 @@
       <c r="I47" s="3">
         <v>300</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>91</v>
+      <c r="J47" s="3">
+        <v>300</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -3891,186 +3996,195 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E48" s="3">
         <v>14200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>11900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>11100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>10200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>7300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>8000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>8600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>2000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>2100</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>2000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>2200</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>2400</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E49" s="3">
         <v>15000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>15200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>15500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>15700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>16100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>16500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>16700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>17000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>17300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>17600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>17800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>18300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>18900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>19500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>20300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>20900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>21500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>22400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>20300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>14900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>15500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>16100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>4400</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>4700</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>5100</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>5500</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>5800</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -4247,13 +4364,16 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E52" s="3">
         <v>800</v>
@@ -4262,7 +4382,7 @@
         <v>800</v>
       </c>
       <c r="G52" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="H52" s="3">
         <v>700</v>
@@ -4271,7 +4391,7 @@
         <v>700</v>
       </c>
       <c r="J52" s="3">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K52" s="3">
         <v>1100</v>
@@ -4283,43 +4403,43 @@
         <v>1100</v>
       </c>
       <c r="N52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O52" s="3">
         <v>1200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>1100</v>
       </c>
       <c r="R52" s="3">
         <v>1100</v>
       </c>
       <c r="S52" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T52" s="3">
         <v>1200</v>
       </c>
       <c r="U52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V52" s="3">
         <v>1300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1100</v>
-      </c>
-      <c r="Z52" s="3">
-        <v>700</v>
       </c>
       <c r="AA52" s="3">
         <v>700</v>
@@ -4328,16 +4448,19 @@
         <v>700</v>
       </c>
       <c r="AC52" s="3">
+        <v>700</v>
+      </c>
+      <c r="AD52" s="3">
         <v>800</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>700</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>111500</v>
+      </c>
+      <c r="E54" s="3">
         <v>111700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>105600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>102800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>101400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>96400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>94900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>96700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>98800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>105900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>78300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>78700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>81600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>78500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>73800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>74300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>76500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>75900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>71600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>66300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>60900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>65000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>61900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>51400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>49800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>50800</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>39500</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>40600</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4580,108 +4710,112 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E57" s="3">
         <v>12800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>9900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>14800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>15100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>13800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>11300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>10500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>10200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>11000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>9500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>9200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>8500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>8800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>7600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>8200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>6300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>5700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>5600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>7200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>7000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>5900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>7600</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>8500</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>7400</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>6000</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E58" s="3">
         <v>10000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>9900</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>91</v>
@@ -4692,252 +4826,261 @@
       <c r="I58" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="J58" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>10400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>23100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>21100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>24700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>23800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>18400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>15500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>16000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>14300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>12800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>14600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>14200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>16500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>15300</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>10700</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>10800</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>9400</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>8700</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>8900</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E59" s="3">
         <v>9400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>8600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>10300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>11100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>9400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>9500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>9700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>8600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>9300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>10200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>10800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>11500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>10800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>9200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>7100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>7400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>9400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>4600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>5800</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>6000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>6700</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>7600</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E60" s="3">
         <v>32200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>27900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>23400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>23800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>21800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>20000</v>
-      </c>
-      <c r="J60" s="3">
-        <v>20800</v>
       </c>
       <c r="K60" s="3">
         <v>20800</v>
       </c>
       <c r="L60" s="3">
+        <v>20800</v>
+      </c>
+      <c r="M60" s="3">
         <v>30100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>42700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>41600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>43900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>41600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>36200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>34500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>34400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>34000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>29900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>29500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>26900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>31200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>31800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>21200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>24100</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>23900</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>22900</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>22600</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
@@ -4975,132 +5118,135 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>5400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>5900</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>9800</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>10600</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>11400</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>13800</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E62" s="3">
         <v>5200</v>
-      </c>
-      <c r="E62" s="3">
-        <v>4000</v>
       </c>
       <c r="F62" s="3">
         <v>4000</v>
       </c>
       <c r="G62" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H62" s="3">
         <v>3700</v>
-      </c>
-      <c r="H62" s="3">
-        <v>1100</v>
       </c>
       <c r="I62" s="3">
         <v>1100</v>
       </c>
       <c r="J62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K62" s="3">
         <v>1300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>5000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>5300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1400</v>
-      </c>
-      <c r="Y62" s="3">
-        <v>400</v>
       </c>
       <c r="Z62" s="3">
         <v>400</v>
       </c>
       <c r="AA62" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="AB62" s="3">
         <v>200</v>
@@ -5109,13 +5255,16 @@
         <v>200</v>
       </c>
       <c r="AD62" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE62" s="3">
         <v>300</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>36600</v>
+      </c>
+      <c r="E66" s="3">
         <v>37400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>32000</v>
-      </c>
-      <c r="F66" s="3">
-        <v>27400</v>
       </c>
       <c r="G66" s="3">
         <v>27400</v>
       </c>
       <c r="H66" s="3">
+        <v>27400</v>
+      </c>
+      <c r="I66" s="3">
         <v>22900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>21100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>22200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>22600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>32200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>45300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>44500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>47700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>46000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>40400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>38900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>39700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>40100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>36600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>32400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>30700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>34800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>37300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>27300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>33900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>34500</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>34300</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>36500</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>39300</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-413300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-413200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-412100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-409400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-409700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-410200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-410000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-409000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-407100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-409600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-412100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-410600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-409900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-410300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-407600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-405500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-403700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-404800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-405200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-404400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-405000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-404700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-402000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-399600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-395100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-394100</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-392200</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-391500</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-390400</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>74800</v>
+      </c>
+      <c r="E76" s="3">
         <v>74300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>73600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>75400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>74000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>73500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>73800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>74500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>76200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>73700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>33000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>34200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>33900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>32500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>33300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>35500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>36700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>35700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>35000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>33900</v>
-      </c>
-      <c r="W76" s="3">
-        <v>30200</v>
       </c>
       <c r="X76" s="3">
         <v>30200</v>
       </c>
       <c r="Y76" s="3">
+        <v>30200</v>
+      </c>
+      <c r="Z76" s="3">
         <v>24600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>24000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>15900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>16400</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>5200</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>4100</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3000</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-2300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-4500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-1900</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-700</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-1100</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -6609,13 +6807,14 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E83" s="3">
         <v>600</v>
@@ -6630,7 +6829,7 @@
         <v>600</v>
       </c>
       <c r="I83" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J83" s="3">
         <v>500</v>
@@ -6645,7 +6844,7 @@
         <v>500</v>
       </c>
       <c r="N83" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="O83" s="3">
         <v>800</v>
@@ -6657,19 +6856,19 @@
         <v>800</v>
       </c>
       <c r="R83" s="3">
+        <v>800</v>
+      </c>
+      <c r="S83" s="3">
         <v>900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1000</v>
-      </c>
-      <c r="T83" s="3">
-        <v>900</v>
       </c>
       <c r="U83" s="3">
         <v>900</v>
       </c>
       <c r="V83" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="W83" s="3">
         <v>800</v>
@@ -6678,7 +6877,7 @@
         <v>800</v>
       </c>
       <c r="Y83" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Z83" s="3">
         <v>700</v>
@@ -6690,16 +6889,19 @@
         <v>700</v>
       </c>
       <c r="AC83" s="3">
+        <v>700</v>
+      </c>
+      <c r="AD83" s="3">
         <v>600</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>700</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -7143,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>1400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-900</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>1200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-3700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-2200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-3000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-2600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-2400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-1900</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-800</v>
       </c>
-      <c r="AD89" s="3">
-        <v>0</v>
-      </c>
       <c r="AE89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -7265,52 +7485,53 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-1200</v>
+        <v>-700</v>
       </c>
       <c r="E91" s="3">
         <v>-1200</v>
       </c>
       <c r="F91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G91" s="3">
         <v>-900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-500</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-100</v>
       </c>
       <c r="R91" s="3">
         <v>-100</v>
@@ -7319,34 +7540,34 @@
         <v>-100</v>
       </c>
       <c r="T91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-400</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-200</v>
-      </c>
-      <c r="AC91" s="3">
-        <v>-100</v>
       </c>
       <c r="AD91" s="3">
         <v>-100</v>
@@ -7354,8 +7575,11 @@
       <c r="AE91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -7532,88 +7759,91 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-1200</v>
+        <v>-600</v>
       </c>
       <c r="E94" s="3">
         <v>-1200</v>
       </c>
       <c r="F94" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G94" s="3">
         <v>-900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
-        <v>-1400</v>
+        <v>0</v>
       </c>
       <c r="V94" s="3">
         <v>-1400</v>
       </c>
       <c r="W94" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="X94" s="3">
         <v>-400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-200</v>
-      </c>
-      <c r="AC94" s="3">
-        <v>-100</v>
       </c>
       <c r="AD94" s="3">
         <v>-100</v>
@@ -7621,8 +7851,11 @@
       <c r="AE94" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -8010,271 +8253,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E100" s="3">
         <v>900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>9800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-10300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>27900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-4100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>5300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>3400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-2600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>4900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>6200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>12300</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-600</v>
       </c>
-      <c r="AD100" s="3">
-        <v>0</v>
-      </c>
       <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-300</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-100</v>
       </c>
       <c r="L101" s="3">
         <v>-100</v>
       </c>
       <c r="M101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N101" s="3">
         <v>-300</v>
-      </c>
-      <c r="N101" s="3">
-        <v>300</v>
       </c>
       <c r="O101" s="3">
         <v>300</v>
       </c>
       <c r="P101" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-400</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>100</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>200</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>400</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-100</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>200</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>100</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E102" s="3">
         <v>1000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>4000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-4800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-4000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-7200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>24900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-3400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-3700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-2400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>3300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-2200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>10100</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-1200</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-100</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-200</v>
       </c>
     </row>
